--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_10_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3201337.556906439</v>
+        <v>-3202150.860345769</v>
       </c>
     </row>
     <row r="7">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>97.59782943789268</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W8" t="n">
         <v>135.7293992974318</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.865925798787496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,64 +1215,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>60.36402868517423</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>59.18642621600367</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>133.3468600696244</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>121.9329941289853</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X9" t="n">
         <v>135.7293992974318</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>119.5504549011778</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S10" t="n">
+        <v>81.39848696832993</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T10" t="n">
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>304.0371729503656</v>
+        <v>304.0371729503657</v>
       </c>
       <c r="C11" t="n">
         <v>292.0484899080474</v>
       </c>
       <c r="D11" t="n">
-        <v>38.06672103859405</v>
+        <v>53.74838453832658</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>325.4950644345939</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>239.5154740569005</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>70.29792687796073</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.58704436097186</v>
+        <v>90.58704436097194</v>
       </c>
       <c r="T11" t="n">
-        <v>134.3774348105162</v>
+        <v>134.3774348105163</v>
       </c>
       <c r="U11" t="n">
         <v>166.23999566481</v>
       </c>
       <c r="V11" t="n">
-        <v>247.5435501905447</v>
+        <v>247.5435501905448</v>
       </c>
       <c r="W11" t="n">
         <v>272.8436496685017</v>
@@ -1436,7 +1436,7 @@
         <v>292.1439079012483</v>
       </c>
       <c r="Y11" t="n">
-        <v>303.540505697447</v>
+        <v>303.5405056974471</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214974</v>
+        <v>60.66232013214973</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.49806561112343</v>
+        <v>46.49806561112342</v>
       </c>
       <c r="S12" t="n">
-        <v>147.4755605575067</v>
+        <v>147.4755605575066</v>
       </c>
       <c r="T12" t="n">
         <v>185.9745311655613</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>95.65388382506276</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>11.73072688504453</v>
       </c>
       <c r="G13" t="n">
-        <v>80.99328987101437</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>26.39132083909376</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.25700797949666</v>
+        <v>54.25700797949673</v>
       </c>
       <c r="S13" t="n">
-        <v>122.5209173779916</v>
+        <v>122.5209173779917</v>
       </c>
       <c r="T13" t="n">
         <v>144.0491856790941</v>
       </c>
       <c r="U13" t="n">
-        <v>198.2430606650083</v>
+        <v>198.2430606650085</v>
       </c>
       <c r="V13" t="n">
-        <v>172.0620202246883</v>
+        <v>172.0620202246884</v>
       </c>
       <c r="W13" t="n">
         <v>197.2289062953016</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8740082911046</v>
+        <v>142.8740082911047</v>
       </c>
       <c r="Y13" t="n">
         <v>133.7488760471724</v>
@@ -1607,13 +1607,13 @@
         <v>304.0371729503657</v>
       </c>
       <c r="C14" t="n">
-        <v>292.0484899080474</v>
+        <v>292.0484899080475</v>
       </c>
       <c r="D14" t="n">
-        <v>283.0297939525754</v>
+        <v>192.9207579230583</v>
       </c>
       <c r="E14" t="n">
-        <v>148.2161663385982</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>238.3252023681167</v>
       </c>
       <c r="I14" t="n">
-        <v>65.81722879112209</v>
+        <v>65.81722879112208</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.93860631794345</v>
+        <v>87.93860631794391</v>
       </c>
       <c r="T14" t="n">
         <v>133.8686673927059</v>
@@ -1664,13 +1664,13 @@
         <v>166.2306978022345</v>
       </c>
       <c r="V14" t="n">
-        <v>247.5435501905448</v>
+        <v>247.5435501905449</v>
       </c>
       <c r="W14" t="n">
-        <v>272.8436496685017</v>
+        <v>272.8436496685018</v>
       </c>
       <c r="X14" t="n">
-        <v>292.1439079012483</v>
+        <v>292.1439079012484</v>
       </c>
       <c r="Y14" t="n">
         <v>303.5405056974471</v>
@@ -1704,7 +1704,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I15" t="n">
-        <v>58.52130361939544</v>
+        <v>58.52130361939541</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.63714462328269</v>
+        <v>42.63714462328264</v>
       </c>
       <c r="S15" t="n">
         <v>146.3205026044475</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.65388382506276</v>
+        <v>95.65388382506281</v>
       </c>
       <c r="C16" t="n">
-        <v>65.86401191671132</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.47524306804168</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.3887688486701176</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.91288440584995</v>
+        <v>51.91288440584997</v>
       </c>
       <c r="S16" t="n">
-        <v>121.6123680673</v>
+        <v>121.6123680673001</v>
       </c>
       <c r="T16" t="n">
-        <v>143.8264323269683</v>
+        <v>143.8264323269684</v>
       </c>
       <c r="U16" t="n">
         <v>198.240217005194</v>
@@ -1825,13 +1825,13 @@
         <v>172.0620202246884</v>
       </c>
       <c r="W16" t="n">
-        <v>197.2289062953016</v>
+        <v>197.2289062953017</v>
       </c>
       <c r="X16" t="n">
-        <v>142.8740082911047</v>
+        <v>142.8740082911048</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.7488760471724</v>
+        <v>133.7488760471725</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.152435270099</v>
+        <v>234.1524352700991</v>
       </c>
       <c r="C17" t="n">
-        <v>222.1637522277807</v>
+        <v>222.1637522277808</v>
       </c>
       <c r="D17" t="n">
-        <v>213.1450562723087</v>
+        <v>213.1450562723088</v>
       </c>
       <c r="E17" t="n">
-        <v>234.8871938422142</v>
+        <v>234.8871938422143</v>
       </c>
       <c r="F17" t="n">
-        <v>254.0590099301906</v>
+        <v>254.0590099301915</v>
       </c>
       <c r="G17" t="n">
-        <v>255.4941034721325</v>
+        <v>255.4941034721326</v>
       </c>
       <c r="H17" t="n">
-        <v>168.44046468785</v>
+        <v>168.4404646878501</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.05386863767725</v>
+        <v>18.05386863767734</v>
       </c>
       <c r="T17" t="n">
-        <v>63.98392971243958</v>
+        <v>63.98392971243925</v>
       </c>
       <c r="U17" t="n">
-        <v>96.34596012196732</v>
+        <v>96.34596012196776</v>
       </c>
       <c r="V17" t="n">
-        <v>177.6588125102781</v>
+        <v>177.6588125102782</v>
       </c>
       <c r="W17" t="n">
-        <v>202.958911988235</v>
+        <v>202.9589119882351</v>
       </c>
       <c r="X17" t="n">
-        <v>222.2591702209816</v>
+        <v>222.2591702209817</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.6557680171804</v>
+        <v>233.6557680171805</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I18" t="n">
-        <v>58.52130361939544</v>
+        <v>58.52130361939541</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.63714462328269</v>
+        <v>42.63714462328263</v>
       </c>
       <c r="S18" t="n">
         <v>146.3205026044475</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.76914614479605</v>
+        <v>25.76914614479617</v>
       </c>
       <c r="C19" t="n">
-        <v>11.96914099019654</v>
+        <v>11.96914099019665</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.05641842748426</v>
+        <v>11.05641842748437</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>51.72763038703332</v>
+        <v>51.72763038703342</v>
       </c>
       <c r="T19" t="n">
-        <v>114.7872232035949</v>
+        <v>73.94169464670172</v>
       </c>
       <c r="U19" t="n">
-        <v>128.3554793249273</v>
+        <v>128.3554793249274</v>
       </c>
       <c r="V19" t="n">
-        <v>102.1772825444216</v>
+        <v>143.0228111013147</v>
       </c>
       <c r="W19" t="n">
-        <v>127.3441686150349</v>
+        <v>127.344168615035</v>
       </c>
       <c r="X19" t="n">
-        <v>72.98927061083802</v>
+        <v>72.98927061083813</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.86413836690571</v>
+        <v>63.86413836690582</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>234.152435270099</v>
+        <v>234.1524352700991</v>
       </c>
       <c r="C20" t="n">
-        <v>222.1637522277807</v>
+        <v>222.1637522277808</v>
       </c>
       <c r="D20" t="n">
-        <v>213.1450562723087</v>
+        <v>213.1450562723088</v>
       </c>
       <c r="E20" t="n">
-        <v>234.8871938422142</v>
+        <v>234.8871938422143</v>
       </c>
       <c r="F20" t="n">
-        <v>254.0590099301914</v>
+        <v>254.0590099301915</v>
       </c>
       <c r="G20" t="n">
-        <v>255.4941034721325</v>
+        <v>255.4941034721326</v>
       </c>
       <c r="H20" t="n">
-        <v>168.44046468785</v>
+        <v>168.4404646878501</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>18.05386863767718</v>
       </c>
       <c r="T20" t="n">
-        <v>63.98392971243916</v>
+        <v>63.98392971243925</v>
       </c>
       <c r="U20" t="n">
-        <v>96.34596012196687</v>
+        <v>96.34596012196776</v>
       </c>
       <c r="V20" t="n">
-        <v>177.6588125102781</v>
+        <v>177.6588125102782</v>
       </c>
       <c r="W20" t="n">
-        <v>202.958911988235</v>
+        <v>202.9589119882351</v>
       </c>
       <c r="X20" t="n">
-        <v>222.2591702209816</v>
+        <v>222.2591702209817</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.6557680171804</v>
+        <v>233.6557680171805</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I21" t="n">
-        <v>58.52130361939544</v>
+        <v>58.52130361939541</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.63714462328269</v>
+        <v>42.63714462328264</v>
       </c>
       <c r="S21" t="n">
         <v>146.3205026044475</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.76914614479605</v>
+        <v>25.76914614479617</v>
       </c>
       <c r="C22" t="n">
-        <v>11.96914099019654</v>
+        <v>11.96914099019665</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.05641842748426</v>
+        <v>11.05641842748437</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.43991642302221</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>73.13324252090439</v>
+        <v>51.72763038703342</v>
       </c>
       <c r="T22" t="n">
-        <v>73.94169464670161</v>
+        <v>73.94169464670172</v>
       </c>
       <c r="U22" t="n">
-        <v>128.3554793249273</v>
+        <v>128.3554793249274</v>
       </c>
       <c r="V22" t="n">
-        <v>102.1772825444216</v>
+        <v>102.1772825444218</v>
       </c>
       <c r="W22" t="n">
-        <v>127.3441686150349</v>
+        <v>127.344168615035</v>
       </c>
       <c r="X22" t="n">
-        <v>72.98927061083802</v>
+        <v>113.8347991677311</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.86413836690571</v>
+        <v>63.86413836690582</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>234.152435270099</v>
+        <v>234.1524352700991</v>
       </c>
       <c r="C23" t="n">
         <v>222.1637522277808</v>
@@ -2333,7 +2333,7 @@
         <v>255.4941034721326</v>
       </c>
       <c r="H23" t="n">
-        <v>168.44046468785</v>
+        <v>168.4404646878501</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>18.05386863767718</v>
       </c>
       <c r="T23" t="n">
-        <v>63.9839297124392</v>
+        <v>63.98392971243925</v>
       </c>
       <c r="U23" t="n">
-        <v>96.34596012196732</v>
+        <v>96.34596012196776</v>
       </c>
       <c r="V23" t="n">
         <v>177.6588125102782</v>
@@ -2384,7 +2384,7 @@
         <v>222.2591702209817</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.6557680171804</v>
+        <v>233.6557680171805</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.76914614479611</v>
+        <v>25.76914614479617</v>
       </c>
       <c r="C25" t="n">
-        <v>11.96914099019659</v>
+        <v>11.96914099019665</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.05641842748432</v>
+        <v>11.05641842748437</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>40.84552855689291</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>51.72763038703336</v>
+        <v>51.72763038703342</v>
       </c>
       <c r="T25" t="n">
-        <v>73.94169464670166</v>
+        <v>73.94169464670172</v>
       </c>
       <c r="U25" t="n">
-        <v>169.2010078818207</v>
+        <v>128.3554793249274</v>
       </c>
       <c r="V25" t="n">
-        <v>102.1772825444217</v>
+        <v>102.1772825444218</v>
       </c>
       <c r="W25" t="n">
         <v>127.344168615035</v>
       </c>
       <c r="X25" t="n">
-        <v>72.98927061083808</v>
+        <v>72.98927061083813</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.86413836690576</v>
+        <v>63.86413836690582</v>
       </c>
     </row>
     <row r="26">
@@ -2725,13 +2725,13 @@
         <v>47.63293419428805</v>
       </c>
       <c r="G28" t="n">
-        <v>63.68417305003123</v>
+        <v>63.68417305003163</v>
       </c>
       <c r="H28" t="n">
         <v>52.46920762413572</v>
       </c>
       <c r="I28" t="n">
-        <v>32.71793183752941</v>
+        <v>32.71793183752939</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>221.0682193103973</v>
       </c>
       <c r="I29" t="n">
-        <v>48.56024573340267</v>
+        <v>48.56024573340264</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.68162326022457</v>
+        <v>70.68162326022454</v>
       </c>
       <c r="T29" t="n">
-        <v>116.6116843349865</v>
+        <v>116.6116843349862</v>
       </c>
       <c r="U29" t="n">
-        <v>148.9737147445149</v>
+        <v>148.9737147445153</v>
       </c>
       <c r="V29" t="n">
         <v>230.2865671328254</v>
@@ -2886,10 +2886,10 @@
         <v>127.1746681979754</v>
       </c>
       <c r="H30" t="n">
-        <v>96.36419814500434</v>
+        <v>96.36419814500432</v>
       </c>
       <c r="I30" t="n">
-        <v>58.52130361939541</v>
+        <v>58.5213036193954</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328262</v>
       </c>
       <c r="S30" t="n">
         <v>146.3205026044475</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.3969007673434</v>
+        <v>78.39690076734338</v>
       </c>
       <c r="C31" t="n">
-        <v>64.59689561274388</v>
+        <v>64.59689561274386</v>
       </c>
       <c r="D31" t="n">
-        <v>48.21826001032227</v>
+        <v>48.21826001032225</v>
       </c>
       <c r="E31" t="n">
-        <v>47.16600986610172</v>
+        <v>47.1660098661017</v>
       </c>
       <c r="F31" t="n">
-        <v>47.63293419428803</v>
+        <v>47.63293419428801</v>
       </c>
       <c r="G31" t="n">
-        <v>63.6841730500316</v>
+        <v>63.68417305003159</v>
       </c>
       <c r="H31" t="n">
-        <v>52.46920762413569</v>
+        <v>52.46920762413568</v>
       </c>
       <c r="I31" t="n">
         <v>32.71793183752936</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65590134813056</v>
+        <v>34.65590134813052</v>
       </c>
       <c r="S31" t="n">
-        <v>104.3553850095807</v>
+        <v>104.3553850095806</v>
       </c>
       <c r="T31" t="n">
         <v>126.5694492692489</v>
@@ -3013,7 +3013,7 @@
         <v>179.9719232375822</v>
       </c>
       <c r="X31" t="n">
-        <v>125.6170252333854</v>
+        <v>125.6170252333853</v>
       </c>
       <c r="Y31" t="n">
         <v>116.491892989453</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.6642797064148</v>
+        <v>251.6642797064147</v>
       </c>
       <c r="C32" t="n">
-        <v>239.6755966640966</v>
+        <v>239.6755966640964</v>
       </c>
       <c r="D32" t="n">
-        <v>230.6569007086246</v>
+        <v>230.6569007086244</v>
       </c>
       <c r="E32" t="n">
-        <v>252.3990382785301</v>
+        <v>252.39903827853</v>
       </c>
       <c r="F32" t="n">
-        <v>271.5708543665073</v>
+        <v>271.5708543665071</v>
       </c>
       <c r="G32" t="n">
-        <v>273.0059479084484</v>
+        <v>273.0059479084482</v>
       </c>
       <c r="H32" t="n">
-        <v>185.9523091241658</v>
+        <v>185.9523091241657</v>
       </c>
       <c r="I32" t="n">
-        <v>13.44433554717119</v>
+        <v>13.44433554717105</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.56571307399351</v>
+        <v>35.56571307399292</v>
       </c>
       <c r="T32" t="n">
-        <v>81.495774148755</v>
+        <v>81.49577414875456</v>
       </c>
       <c r="U32" t="n">
-        <v>113.8578045582832</v>
+        <v>113.8578045582836</v>
       </c>
       <c r="V32" t="n">
-        <v>195.170656946594</v>
+        <v>195.1706569465938</v>
       </c>
       <c r="W32" t="n">
-        <v>220.4707564245509</v>
+        <v>220.4707564245507</v>
       </c>
       <c r="X32" t="n">
-        <v>239.7710146572975</v>
+        <v>239.7710146572973</v>
       </c>
       <c r="Y32" t="n">
-        <v>251.1676124534962</v>
+        <v>251.1676124534961</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>127.1746681979754</v>
       </c>
       <c r="H33" t="n">
-        <v>96.36419814500434</v>
+        <v>96.36419814500432</v>
       </c>
       <c r="I33" t="n">
-        <v>58.52130361939541</v>
+        <v>58.5213036193954</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328262</v>
       </c>
       <c r="S33" t="n">
         <v>146.3205026044475</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.28099058111192</v>
+        <v>43.28099058111178</v>
       </c>
       <c r="C34" t="n">
-        <v>29.4809854265124</v>
+        <v>29.48098542651226</v>
       </c>
       <c r="D34" t="n">
-        <v>13.10234982409079</v>
+        <v>13.10234982409065</v>
       </c>
       <c r="E34" t="n">
-        <v>12.05009967987024</v>
+        <v>12.0500996798701</v>
       </c>
       <c r="F34" t="n">
-        <v>12.51702400805655</v>
+        <v>12.51702400805641</v>
       </c>
       <c r="G34" t="n">
-        <v>28.56826286380013</v>
+        <v>28.56826286379999</v>
       </c>
       <c r="H34" t="n">
-        <v>17.35329743790422</v>
+        <v>17.35329743790407</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>69.23947482334917</v>
+        <v>69.23947482334903</v>
       </c>
       <c r="T34" t="n">
-        <v>91.45353908301747</v>
+        <v>91.45353908301733</v>
       </c>
       <c r="U34" t="n">
-        <v>145.8673237612431</v>
+        <v>145.867323761243</v>
       </c>
       <c r="V34" t="n">
-        <v>119.6891269807375</v>
+        <v>119.6891269807374</v>
       </c>
       <c r="W34" t="n">
-        <v>144.8560130513508</v>
+        <v>144.8560130513506</v>
       </c>
       <c r="X34" t="n">
-        <v>90.50111504715389</v>
+        <v>90.50111504715375</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.37598280322158</v>
+        <v>81.37598280322143</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.05386863767734</v>
+        <v>18.05386863767718</v>
       </c>
       <c r="T35" t="n">
-        <v>63.98392971243958</v>
+        <v>63.98392971243925</v>
       </c>
       <c r="U35" t="n">
-        <v>96.34596012196732</v>
+        <v>96.34596012196822</v>
       </c>
       <c r="V35" t="n">
         <v>177.6588125102782</v>
@@ -3360,10 +3360,10 @@
         <v>127.1746681979754</v>
       </c>
       <c r="H36" t="n">
-        <v>96.36419814500434</v>
+        <v>96.36419814500432</v>
       </c>
       <c r="I36" t="n">
-        <v>58.52130361939541</v>
+        <v>58.5213036193954</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328262</v>
       </c>
       <c r="S36" t="n">
         <v>146.3205026044475</v>
@@ -3427,7 +3427,7 @@
         <v>11.96914099019665</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>40.84552855689292</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,16 +3466,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.43991642302215</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>51.72763038703342</v>
+        <v>51.72763038703341</v>
       </c>
       <c r="T37" t="n">
-        <v>95.34730678057231</v>
+        <v>73.94169464670172</v>
       </c>
       <c r="U37" t="n">
         <v>128.3554793249274</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.05386863767763</v>
+        <v>18.05386863767731</v>
       </c>
       <c r="T38" t="n">
-        <v>63.98392971243925</v>
+        <v>63.98392971243913</v>
       </c>
       <c r="U38" t="n">
-        <v>96.34596012196732</v>
+        <v>96.34596012196776</v>
       </c>
       <c r="V38" t="n">
         <v>177.6588125102782</v>
@@ -3597,10 +3597,10 @@
         <v>127.1746681979754</v>
       </c>
       <c r="H39" t="n">
-        <v>96.36419814500434</v>
+        <v>96.36419814500432</v>
       </c>
       <c r="I39" t="n">
-        <v>58.52130361939541</v>
+        <v>58.5213036193954</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328262</v>
       </c>
       <c r="S39" t="n">
         <v>146.3205026044475</v>
@@ -3664,7 +3664,7 @@
         <v>11.96914099019665</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>40.84552855689292</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>51.72763038703342</v>
+        <v>51.72763038703341</v>
       </c>
       <c r="T40" t="n">
         <v>73.94169464670172</v>
@@ -3724,7 +3724,7 @@
         <v>127.344168615035</v>
       </c>
       <c r="X40" t="n">
-        <v>113.8347991677308</v>
+        <v>72.98927061083813</v>
       </c>
       <c r="Y40" t="n">
         <v>63.86413836690582</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.05386863767736</v>
+        <v>18.05386863767734</v>
       </c>
       <c r="T41" t="n">
-        <v>63.98392971243928</v>
+        <v>63.98392971243913</v>
       </c>
       <c r="U41" t="n">
         <v>96.34596012196732</v>
@@ -3834,10 +3834,10 @@
         <v>127.1746681979754</v>
       </c>
       <c r="H42" t="n">
-        <v>96.36419814500434</v>
+        <v>96.36419814500432</v>
       </c>
       <c r="I42" t="n">
-        <v>58.52130361939541</v>
+        <v>58.5213036193954</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328262</v>
       </c>
       <c r="S42" t="n">
         <v>146.3205026044475</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.72763038703345</v>
+        <v>51.72763038703344</v>
       </c>
       <c r="T43" t="n">
         <v>73.94169464670175</v>
       </c>
       <c r="U43" t="n">
-        <v>169.20100788182</v>
+        <v>128.3554793249274</v>
       </c>
       <c r="V43" t="n">
         <v>102.1772825444218</v>
@@ -3964,7 +3964,7 @@
         <v>72.98927061083816</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.86413836690585</v>
+        <v>104.7096669237985</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>18.05386863767733</v>
+        <v>18.05386863767731</v>
       </c>
       <c r="T44" t="n">
-        <v>63.98392971243926</v>
+        <v>63.98392971243925</v>
       </c>
       <c r="U44" t="n">
-        <v>96.34596012196732</v>
+        <v>96.34596012196776</v>
       </c>
       <c r="V44" t="n">
         <v>177.6588125102782</v>
@@ -4071,10 +4071,10 @@
         <v>127.1746681979754</v>
       </c>
       <c r="H45" t="n">
-        <v>96.36419814500434</v>
+        <v>96.36419814500432</v>
       </c>
       <c r="I45" t="n">
-        <v>58.52130361939541</v>
+        <v>58.5213036193954</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328262</v>
       </c>
       <c r="S45" t="n">
         <v>146.3205026044475</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.72763038703342</v>
+        <v>51.72763038703341</v>
       </c>
       <c r="T46" t="n">
         <v>73.94169464670172</v>
@@ -4198,10 +4198,10 @@
         <v>127.344168615035</v>
       </c>
       <c r="X46" t="n">
-        <v>72.98927061083813</v>
+        <v>113.8347991677311</v>
       </c>
       <c r="Y46" t="n">
-        <v>104.7096669237988</v>
+        <v>63.86413836690582</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.1331244293673</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C8" t="n">
-        <v>170.1331244293673</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="D8" t="n">
         <v>170.1331244293673</v>
@@ -4811,7 +4811,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="M8" t="n">
-        <v>45.36902758981768</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N8" t="n">
         <v>179.7411328942751</v>
@@ -4826,28 +4826,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S8" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T8" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U8" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V8" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W8" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X8" t="n">
-        <v>315.1789073548413</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y8" t="n">
-        <v>307.2335277601064</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>282.6525533246594</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="C9" t="n">
-        <v>282.6525533246594</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="D9" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F9" t="n">
         <v>10.85835194379454</v>
@@ -4890,10 +4890,10 @@
         <v>10.85835194379454</v>
       </c>
       <c r="M9" t="n">
-        <v>139.8012812763547</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N9" t="n">
-        <v>139.8012812763547</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="O9" t="n">
         <v>274.1733865808121</v>
@@ -4905,28 +4905,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S9" t="n">
-        <v>419.7529566553985</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T9" t="n">
-        <v>419.7529566553985</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U9" t="n">
-        <v>419.7529566553985</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="V9" t="n">
-        <v>419.7529566553985</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="W9" t="n">
-        <v>419.7529566553985</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="X9" t="n">
-        <v>282.6525533246594</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="Y9" t="n">
-        <v>282.6525533246594</v>
+        <v>71.83211829245539</v>
       </c>
     </row>
     <row r="10">
@@ -4981,25 +4981,25 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>422.159561936012</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S10" t="n">
         <v>285.0591586052728</v>
       </c>
       <c r="T10" t="n">
-        <v>147.9587552745337</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U10" t="n">
-        <v>147.9587552745337</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V10" t="n">
         <v>147.9587552745337</v>
       </c>
       <c r="W10" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X10" t="n">
         <v>10.85835194379454</v>
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>713.0865188684019</v>
+        <v>713.0865188684018</v>
       </c>
       <c r="C11" t="n">
-        <v>418.0880442138085</v>
+        <v>418.0880442138084</v>
       </c>
       <c r="D11" t="n">
-        <v>379.6368108414913</v>
+        <v>363.7967467003472</v>
       </c>
       <c r="E11" t="n">
-        <v>379.6368108414913</v>
+        <v>363.7967467003472</v>
       </c>
       <c r="F11" t="n">
-        <v>379.6368108414913</v>
+        <v>363.7967467003472</v>
       </c>
       <c r="G11" t="n">
-        <v>50.85391747321462</v>
+        <v>363.7967467003472</v>
       </c>
       <c r="H11" t="n">
-        <v>50.85391747321462</v>
+        <v>121.8619244206497</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J11" t="n">
-        <v>154.9459054532635</v>
+        <v>154.9459054532634</v>
       </c>
       <c r="K11" t="n">
-        <v>443.1860302481634</v>
+        <v>443.1860302481632</v>
       </c>
       <c r="L11" t="n">
-        <v>850.743399890712</v>
+        <v>850.7433998907117</v>
       </c>
       <c r="M11" t="n">
         <v>1310.379159876956</v>
@@ -5109,7 +5109,7 @@
         <v>338.5952780800167</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050872</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H12" t="n">
         <v>112.1289883137699</v>
@@ -5121,10 +5121,10 @@
         <v>50.85391747321462</v>
       </c>
       <c r="K12" t="n">
-        <v>68.10001809715425</v>
+        <v>68.10001809715391</v>
       </c>
       <c r="L12" t="n">
-        <v>477.85065097758</v>
+        <v>477.8506509775797</v>
       </c>
       <c r="M12" t="n">
         <v>1014.14682775868</v>
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.3232212207988</v>
+        <v>62.70313654901717</v>
       </c>
       <c r="C13" t="n">
-        <v>159.3232212207988</v>
+        <v>62.70313654901717</v>
       </c>
       <c r="D13" t="n">
-        <v>159.3232212207988</v>
+        <v>62.70313654901717</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3232212207988</v>
+        <v>62.70313654901717</v>
       </c>
       <c r="F13" t="n">
-        <v>159.3232212207988</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>77.51181731068306</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
-        <v>77.51181731068306</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I13" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>89.18899764913232</v>
+        <v>89.18899764913226</v>
       </c>
       <c r="K13" t="n">
-        <v>227.7048456257612</v>
+        <v>227.7048456257608</v>
       </c>
       <c r="L13" t="n">
-        <v>438.7345893298997</v>
+        <v>438.7345893298993</v>
       </c>
       <c r="M13" t="n">
-        <v>668.5215719102091</v>
+        <v>668.5215719102086</v>
       </c>
       <c r="N13" t="n">
-        <v>898.1051820348796</v>
+        <v>898.1051820348791</v>
       </c>
       <c r="O13" t="n">
         <v>1105.748664272068</v>
       </c>
       <c r="P13" t="n">
-        <v>1274.436800994831</v>
+        <v>1274.43680099483</v>
       </c>
       <c r="Q13" t="n">
         <v>1336.074718756008</v>
@@ -5224,25 +5224,25 @@
         <v>1281.26966019086</v>
       </c>
       <c r="S13" t="n">
-        <v>1157.511157788849</v>
+        <v>1157.511157788848</v>
       </c>
       <c r="T13" t="n">
-        <v>1012.006929830168</v>
+        <v>1012.006929830167</v>
       </c>
       <c r="U13" t="n">
-        <v>811.761414006927</v>
+        <v>811.7614140069261</v>
       </c>
       <c r="V13" t="n">
-        <v>637.9613935779489</v>
+        <v>637.961393577948</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7402761079474</v>
+        <v>438.7402761079463</v>
       </c>
       <c r="X13" t="n">
-        <v>294.4230960159225</v>
+        <v>294.4230960159214</v>
       </c>
       <c r="Y13" t="n">
-        <v>159.3232212207988</v>
+        <v>159.3232212207977</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>850.6231850636607</v>
+        <v>850.6231850636622</v>
       </c>
       <c r="C14" t="n">
-        <v>555.6247104090671</v>
+        <v>555.6247104090687</v>
       </c>
       <c r="D14" t="n">
-        <v>269.7360296488898</v>
+        <v>360.7552579615345</v>
       </c>
       <c r="E14" t="n">
-        <v>120.0227303169721</v>
+        <v>360.7552579615345</v>
       </c>
       <c r="F14" t="n">
-        <v>120.0227303169721</v>
+        <v>360.7552579615345</v>
       </c>
       <c r="G14" t="n">
-        <v>120.0227303169721</v>
+        <v>360.7552579615345</v>
       </c>
       <c r="H14" t="n">
-        <v>120.0227303169721</v>
+        <v>120.0227303169722</v>
       </c>
       <c r="I14" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J14" t="n">
-        <v>167.39833175232</v>
+        <v>167.3983317523207</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2746535064589</v>
+        <v>470.2746535064598</v>
       </c>
       <c r="L14" t="n">
-        <v>895.9895196980095</v>
+        <v>895.9895196980107</v>
       </c>
       <c r="M14" t="n">
-        <v>1375.828993170051</v>
+        <v>1375.828993170053</v>
       </c>
       <c r="N14" t="n">
-        <v>1842.161942585357</v>
+        <v>1842.161942585359</v>
       </c>
       <c r="O14" t="n">
-        <v>2230.263933750936</v>
+        <v>2230.263933750938</v>
       </c>
       <c r="P14" t="n">
-        <v>2529.342544292797</v>
+        <v>2529.342544292799</v>
       </c>
       <c r="Q14" t="n">
-        <v>2677.034051650521</v>
+        <v>2677.034051650523</v>
       </c>
       <c r="R14" t="n">
-        <v>2677.034051650521</v>
+        <v>2677.034051650523</v>
       </c>
       <c r="S14" t="n">
-        <v>2588.207176581891</v>
+        <v>2588.207176581893</v>
       </c>
       <c r="T14" t="n">
-        <v>2452.986300427643</v>
+        <v>2452.986300427644</v>
       </c>
       <c r="U14" t="n">
-        <v>2285.07650466781</v>
+        <v>2285.076504667812</v>
       </c>
       <c r="V14" t="n">
-        <v>2035.03251457635</v>
+        <v>2035.032514576352</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.432868446551</v>
+        <v>1759.432868446552</v>
       </c>
       <c r="X14" t="n">
-        <v>1464.338011980643</v>
+        <v>1464.338011980645</v>
       </c>
       <c r="Y14" t="n">
-        <v>1157.731440569081</v>
+        <v>1157.731440569082</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I15" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J15" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K15" t="n">
-        <v>53.54068103301042</v>
+        <v>325.6422784784222</v>
       </c>
       <c r="L15" t="n">
-        <v>406.5093929249621</v>
+        <v>406.5093929249607</v>
       </c>
       <c r="M15" t="n">
-        <v>958.4042523433105</v>
+        <v>958.4042523433094</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.301029483323</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O15" t="n">
-        <v>1993.285056968147</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P15" t="n">
         <v>2345.770732938111</v>
       </c>
       <c r="Q15" t="n">
-        <v>2537.226580621403</v>
+        <v>2537.226580621402</v>
       </c>
       <c r="R15" t="n">
         <v>2494.158757769602</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>120.0699859993855</v>
+        <v>120.069985999386</v>
       </c>
       <c r="C16" t="n">
-        <v>53.54068103301042</v>
+        <v>120.069985999386</v>
       </c>
       <c r="D16" t="n">
-        <v>53.54068103301042</v>
+        <v>53.93337683974795</v>
       </c>
       <c r="E16" t="n">
-        <v>53.54068103301042</v>
+        <v>53.93337683974795</v>
       </c>
       <c r="F16" t="n">
-        <v>53.54068103301042</v>
+        <v>53.93337683974795</v>
       </c>
       <c r="G16" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="H16" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I16" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J16" t="n">
-        <v>95.52475970102846</v>
+        <v>95.5247597010285</v>
       </c>
       <c r="K16" t="n">
         <v>240.0370331282222</v>
@@ -5443,10 +5443,10 @@
         <v>458.7401369120586</v>
       </c>
       <c r="M16" t="n">
-        <v>696.6176018119368</v>
+        <v>696.617601811937</v>
       </c>
       <c r="N16" t="n">
-        <v>934.099320669734</v>
+        <v>934.0993206697342</v>
       </c>
       <c r="O16" t="n">
         <v>1149.037984667907</v>
@@ -5455,31 +5455,31 @@
         <v>1323.968409668785</v>
       </c>
       <c r="Q16" t="n">
-        <v>1389.928164270741</v>
+        <v>1389.928164270742</v>
       </c>
       <c r="R16" t="n">
-        <v>1337.490907295135</v>
+        <v>1337.490907295136</v>
       </c>
       <c r="S16" t="n">
         <v>1214.65013146958</v>
       </c>
       <c r="T16" t="n">
-        <v>1069.370906896884</v>
+        <v>1069.370906896885</v>
       </c>
       <c r="U16" t="n">
-        <v>869.1282634572945</v>
+        <v>869.1282634572948</v>
       </c>
       <c r="V16" t="n">
-        <v>695.3282430283164</v>
+        <v>695.3282430283166</v>
       </c>
       <c r="W16" t="n">
-        <v>496.1071255583147</v>
+        <v>496.1071255583149</v>
       </c>
       <c r="X16" t="n">
-        <v>351.7899454662897</v>
+        <v>351.7899454662899</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.6900706711661</v>
+        <v>216.6900706711662</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1415.348338035513</v>
+        <v>1415.348338035514</v>
       </c>
       <c r="C17" t="n">
-        <v>1190.940507502401</v>
+        <v>1190.940507502402</v>
       </c>
       <c r="D17" t="n">
-        <v>975.6424708637049</v>
+        <v>975.6424708637061</v>
       </c>
       <c r="E17" t="n">
-        <v>738.3826791038925</v>
+        <v>738.3826791038936</v>
       </c>
       <c r="F17" t="n">
-        <v>481.7574165481444</v>
+        <v>481.7574165481445</v>
       </c>
       <c r="G17" t="n">
-        <v>223.6825645560912</v>
+        <v>223.6825645560913</v>
       </c>
       <c r="H17" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I17" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J17" t="n">
-        <v>167.3983317523199</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2746535064588</v>
+        <v>470.2746535064593</v>
       </c>
       <c r="L17" t="n">
-        <v>895.9895196980096</v>
+        <v>895.9895196980103</v>
       </c>
       <c r="M17" t="n">
-        <v>1375.828993170051</v>
+        <v>1375.828993170052</v>
       </c>
       <c r="N17" t="n">
-        <v>1842.161942585357</v>
+        <v>1842.161942585358</v>
       </c>
       <c r="O17" t="n">
-        <v>2230.263933750936</v>
+        <v>2230.263933750938</v>
       </c>
       <c r="P17" t="n">
-        <v>2529.342544292797</v>
+        <v>2529.342544292799</v>
       </c>
       <c r="Q17" t="n">
-        <v>2677.034051650521</v>
+        <v>2677.034051650523</v>
       </c>
       <c r="R17" t="n">
-        <v>2677.034051650521</v>
+        <v>2677.034051650523</v>
       </c>
       <c r="S17" t="n">
-        <v>2658.797820703372</v>
+        <v>2658.797820703374</v>
       </c>
       <c r="T17" t="n">
-        <v>2594.167588670605</v>
+        <v>2594.167588670608</v>
       </c>
       <c r="U17" t="n">
-        <v>2496.848437032254</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V17" t="n">
-        <v>2317.395091062276</v>
+        <v>2317.395091062278</v>
       </c>
       <c r="W17" t="n">
-        <v>2112.386089053958</v>
+        <v>2112.38608905396</v>
       </c>
       <c r="X17" t="n">
-        <v>1887.881876709532</v>
+        <v>1887.881876709534</v>
       </c>
       <c r="Y17" t="n">
-        <v>1651.865949419451</v>
+        <v>1651.865949419452</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I18" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J18" t="n">
-        <v>53.54068103301042</v>
+        <v>138.7258246020671</v>
       </c>
       <c r="K18" t="n">
-        <v>53.54068103301042</v>
+        <v>406.5093929249607</v>
       </c>
       <c r="L18" t="n">
-        <v>476.6583345808581</v>
+        <v>406.5093929249607</v>
       </c>
       <c r="M18" t="n">
-        <v>958.4042523433106</v>
+        <v>958.4042523433094</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.301029483323</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O18" t="n">
-        <v>1993.285056968147</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P18" t="n">
         <v>2345.770732938111</v>
       </c>
       <c r="Q18" t="n">
-        <v>2537.226580621403</v>
+        <v>2537.226580621402</v>
       </c>
       <c r="R18" t="n">
         <v>2494.158757769602</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.79882185895062</v>
+        <v>76.79882185895089</v>
       </c>
       <c r="C19" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="D19" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="E19" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="F19" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="G19" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="H19" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I19" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J19" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K19" t="n">
-        <v>112.8476825994556</v>
+        <v>112.8476825994557</v>
       </c>
       <c r="L19" t="n">
-        <v>246.3455145225434</v>
+        <v>246.3455145225437</v>
       </c>
       <c r="M19" t="n">
-        <v>399.0177075616731</v>
+        <v>399.0177075616735</v>
       </c>
       <c r="N19" t="n">
-        <v>551.2941545587217</v>
+        <v>551.2941545587223</v>
       </c>
       <c r="O19" t="n">
-        <v>681.0275466961465</v>
+        <v>681.0275466961472</v>
       </c>
       <c r="P19" t="n">
-        <v>770.7526998362757</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="Q19" t="n">
-        <v>770.7526998362757</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="R19" t="n">
-        <v>770.7526998362757</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="S19" t="n">
-        <v>718.5025681322016</v>
+        <v>718.5025681322023</v>
       </c>
       <c r="T19" t="n">
-        <v>602.5558780275603</v>
+        <v>643.8139876809885</v>
       </c>
       <c r="U19" t="n">
-        <v>472.9038787094519</v>
+        <v>514.16198836288</v>
       </c>
       <c r="V19" t="n">
-        <v>369.6945024019553</v>
+        <v>369.6945024019561</v>
       </c>
       <c r="W19" t="n">
-        <v>241.0640290534353</v>
+        <v>241.0640290534359</v>
       </c>
       <c r="X19" t="n">
-        <v>167.3374930828918</v>
+        <v>167.3374930828923</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.8282624092497</v>
+        <v>102.82826240925</v>
       </c>
     </row>
     <row r="20">
@@ -5729,10 +5729,10 @@
         <v>1415.348338035514</v>
       </c>
       <c r="C20" t="n">
-        <v>1190.940507502401</v>
+        <v>1190.940507502402</v>
       </c>
       <c r="D20" t="n">
-        <v>975.6424708637059</v>
+        <v>975.642470863706</v>
       </c>
       <c r="E20" t="n">
         <v>738.3826791038935</v>
@@ -5741,58 +5741,58 @@
         <v>481.7574165481445</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6825645560912</v>
+        <v>223.6825645560913</v>
       </c>
       <c r="H20" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I20" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J20" t="n">
-        <v>167.3983317523204</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K20" t="n">
-        <v>470.2746535064593</v>
+        <v>470.2746535064591</v>
       </c>
       <c r="L20" t="n">
-        <v>895.9895196980099</v>
+        <v>895.98951969801</v>
       </c>
       <c r="M20" t="n">
-        <v>1375.828993170051</v>
+        <v>1375.828993170052</v>
       </c>
       <c r="N20" t="n">
-        <v>1842.161942585357</v>
+        <v>1842.161942585358</v>
       </c>
       <c r="O20" t="n">
-        <v>2230.263933750936</v>
+        <v>2230.263933750938</v>
       </c>
       <c r="P20" t="n">
-        <v>2529.342544292797</v>
+        <v>2529.342544292799</v>
       </c>
       <c r="Q20" t="n">
-        <v>2677.034051650521</v>
+        <v>2677.034051650523</v>
       </c>
       <c r="R20" t="n">
-        <v>2677.034051650521</v>
+        <v>2677.034051650523</v>
       </c>
       <c r="S20" t="n">
-        <v>2658.797820703372</v>
+        <v>2658.797820703374</v>
       </c>
       <c r="T20" t="n">
-        <v>2594.167588670605</v>
+        <v>2594.167588670608</v>
       </c>
       <c r="U20" t="n">
-        <v>2496.848437032255</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V20" t="n">
-        <v>2317.395091062277</v>
+        <v>2317.395091062278</v>
       </c>
       <c r="W20" t="n">
-        <v>2112.386089053959</v>
+        <v>2112.38608905396</v>
       </c>
       <c r="X20" t="n">
-        <v>1887.881876709533</v>
+        <v>1887.881876709534</v>
       </c>
       <c r="Y20" t="n">
         <v>1651.865949419452</v>
@@ -5826,31 +5826,31 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I21" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J21" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K21" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="L21" t="n">
-        <v>406.5093929249621</v>
+        <v>406.5093929249607</v>
       </c>
       <c r="M21" t="n">
-        <v>958.4042523433105</v>
+        <v>958.4042523433094</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.301029483323</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O21" t="n">
-        <v>1993.285056968147</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P21" t="n">
         <v>2345.770732938111</v>
       </c>
       <c r="Q21" t="n">
-        <v>2537.226580621403</v>
+        <v>2537.226580621402</v>
       </c>
       <c r="R21" t="n">
         <v>2494.158757769602</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76.79882185895062</v>
+        <v>76.79882185895089</v>
       </c>
       <c r="C22" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="D22" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="E22" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="F22" t="n">
-        <v>64.70878045471169</v>
+        <v>64.70878045471184</v>
       </c>
       <c r="G22" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="H22" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I22" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J22" t="n">
-        <v>53.54068103301042</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K22" t="n">
-        <v>112.8476825994556</v>
+        <v>112.8476825994557</v>
       </c>
       <c r="L22" t="n">
-        <v>246.3455145225434</v>
+        <v>246.3455145225437</v>
       </c>
       <c r="M22" t="n">
-        <v>399.0177075616731</v>
+        <v>399.0177075616735</v>
       </c>
       <c r="N22" t="n">
-        <v>551.2941545587217</v>
+        <v>551.2941545587223</v>
       </c>
       <c r="O22" t="n">
-        <v>681.0275466961465</v>
+        <v>681.0275466961472</v>
       </c>
       <c r="P22" t="n">
-        <v>770.7526998362757</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="Q22" t="n">
-        <v>751.1164206211017</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="R22" t="n">
-        <v>751.1164206211017</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="S22" t="n">
-        <v>677.244458478774</v>
+        <v>718.5025681322023</v>
       </c>
       <c r="T22" t="n">
-        <v>602.5558780275603</v>
+        <v>643.8139876809885</v>
       </c>
       <c r="U22" t="n">
-        <v>472.9038787094519</v>
+        <v>514.16198836288</v>
       </c>
       <c r="V22" t="n">
-        <v>369.6945024019553</v>
+        <v>410.9526120553833</v>
       </c>
       <c r="W22" t="n">
-        <v>241.0640290534353</v>
+        <v>282.3221387068631</v>
       </c>
       <c r="X22" t="n">
-        <v>167.3374930828918</v>
+        <v>167.3374930828923</v>
       </c>
       <c r="Y22" t="n">
-        <v>102.8282624092497</v>
+        <v>102.82826240925</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1415.348338035514</v>
+        <v>1415.348338035515</v>
       </c>
       <c r="C23" t="n">
         <v>1190.940507502402</v>
       </c>
       <c r="D23" t="n">
-        <v>975.6424708637061</v>
+        <v>975.6424708637066</v>
       </c>
       <c r="E23" t="n">
-        <v>738.3826791038937</v>
+        <v>738.3826791038941</v>
       </c>
       <c r="F23" t="n">
-        <v>481.7574165481446</v>
+        <v>481.7574165481451</v>
       </c>
       <c r="G23" t="n">
         <v>223.6825645560913</v>
       </c>
       <c r="H23" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="I23" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="J23" t="n">
-        <v>167.3983317523198</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2746535064589</v>
+        <v>470.2746535064603</v>
       </c>
       <c r="L23" t="n">
-        <v>895.9895196980098</v>
+        <v>895.9895196980111</v>
       </c>
       <c r="M23" t="n">
-        <v>1375.828993170052</v>
+        <v>1375.828993170053</v>
       </c>
       <c r="N23" t="n">
-        <v>1842.161942585358</v>
+        <v>1842.161942585359</v>
       </c>
       <c r="O23" t="n">
-        <v>2230.263933750937</v>
+        <v>2230.263933750939</v>
       </c>
       <c r="P23" t="n">
-        <v>2529.342544292799</v>
+        <v>2529.3425442928</v>
       </c>
       <c r="Q23" t="n">
         <v>2677.034051650523</v>
@@ -6014,16 +6014,16 @@
         <v>2677.034051650523</v>
       </c>
       <c r="S23" t="n">
-        <v>2658.797820703374</v>
+        <v>2658.797820703375</v>
       </c>
       <c r="T23" t="n">
-        <v>2594.167588670607</v>
+        <v>2594.167588670608</v>
       </c>
       <c r="U23" t="n">
-        <v>2496.848437032256</v>
+        <v>2496.848437032257</v>
       </c>
       <c r="V23" t="n">
-        <v>2317.395091062278</v>
+        <v>2317.395091062279</v>
       </c>
       <c r="W23" t="n">
         <v>2112.38608905396</v>
@@ -6032,7 +6032,7 @@
         <v>1887.881876709534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1651.865949419452</v>
+        <v>1651.865949419453</v>
       </c>
     </row>
     <row r="24">
@@ -6063,13 +6063,13 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I24" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7258246020671</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="K24" t="n">
-        <v>138.7258246020671</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="L24" t="n">
         <v>406.5093929249607</v>
@@ -6121,55 +6121,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>76.79882185895077</v>
+        <v>118.0569315123781</v>
       </c>
       <c r="C25" t="n">
-        <v>64.70878045471179</v>
+        <v>105.966890108139</v>
       </c>
       <c r="D25" t="n">
-        <v>64.70878045471179</v>
+        <v>105.966890108139</v>
       </c>
       <c r="E25" t="n">
-        <v>64.70878045471179</v>
+        <v>105.966890108139</v>
       </c>
       <c r="F25" t="n">
-        <v>64.70878045471179</v>
+        <v>105.966890108139</v>
       </c>
       <c r="G25" t="n">
-        <v>53.54068103301045</v>
+        <v>94.79879068643766</v>
       </c>
       <c r="H25" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="I25" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="J25" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301047</v>
       </c>
       <c r="K25" t="n">
         <v>112.8476825994557</v>
       </c>
       <c r="L25" t="n">
-        <v>246.3455145225436</v>
+        <v>246.3455145225437</v>
       </c>
       <c r="M25" t="n">
-        <v>399.0177075616734</v>
+        <v>399.0177075616735</v>
       </c>
       <c r="N25" t="n">
-        <v>551.2941545587222</v>
+        <v>551.2941545587223</v>
       </c>
       <c r="O25" t="n">
-        <v>681.0275466961471</v>
+        <v>681.0275466961472</v>
       </c>
       <c r="P25" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="Q25" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="R25" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="S25" t="n">
         <v>718.5025681322023</v>
@@ -6178,19 +6178,19 @@
         <v>643.8139876809885</v>
       </c>
       <c r="U25" t="n">
-        <v>472.9038787094524</v>
+        <v>514.16198836288</v>
       </c>
       <c r="V25" t="n">
-        <v>369.6945024019558</v>
+        <v>410.9526120553833</v>
       </c>
       <c r="W25" t="n">
-        <v>241.0640290534356</v>
+        <v>282.3221387068631</v>
       </c>
       <c r="X25" t="n">
-        <v>167.3374930828921</v>
+        <v>208.5956027363195</v>
       </c>
       <c r="Y25" t="n">
-        <v>102.8282624092499</v>
+        <v>144.0863720626772</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1799.544600876467</v>
+        <v>1799.544600876468</v>
       </c>
       <c r="C26" t="n">
-        <v>1521.977422239772</v>
+        <v>1521.977422239773</v>
       </c>
       <c r="D26" t="n">
         <v>1253.520037497494</v>
@@ -6221,55 +6221,55 @@
         <v>118.7808552524662</v>
       </c>
       <c r="I26" t="n">
-        <v>69.73010198640283</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="J26" t="n">
         <v>285.8774377936032</v>
       </c>
       <c r="K26" t="n">
-        <v>621.5719797546245</v>
+        <v>691.043444635633</v>
       </c>
       <c r="L26" t="n">
-        <v>1149.576531034066</v>
+        <v>1149.576531034067</v>
       </c>
       <c r="M26" t="n">
-        <v>1731.705689593999</v>
+        <v>1731.705689594</v>
       </c>
       <c r="N26" t="n">
-        <v>2300.328324097195</v>
+        <v>2300.328324097196</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.720000350665</v>
+        <v>2790.720000350666</v>
       </c>
       <c r="P26" t="n">
-        <v>3192.088295980417</v>
+        <v>3192.088295980418</v>
       </c>
       <c r="Q26" t="n">
-        <v>3442.069488426032</v>
+        <v>3442.069488426033</v>
       </c>
       <c r="R26" t="n">
-        <v>3486.505099320142</v>
+        <v>3486.505099320143</v>
       </c>
       <c r="S26" t="n">
-        <v>3415.10952026941</v>
+        <v>3415.109520269411</v>
       </c>
       <c r="T26" t="n">
-        <v>3297.31994013306</v>
+        <v>3297.319940133061</v>
       </c>
       <c r="U26" t="n">
-        <v>3146.841440391125</v>
+        <v>3146.841440391126</v>
       </c>
       <c r="V26" t="n">
-        <v>2914.228746317564</v>
+        <v>2914.228746317565</v>
       </c>
       <c r="W26" t="n">
         <v>2656.060396205663</v>
       </c>
       <c r="X26" t="n">
-        <v>2378.396835757653</v>
+        <v>2378.396835757654</v>
       </c>
       <c r="Y26" t="n">
-        <v>2089.221560363989</v>
+        <v>2089.22156036399</v>
       </c>
     </row>
     <row r="27">
@@ -6288,28 +6288,28 @@
         <v>636.361172567915</v>
       </c>
       <c r="E27" t="n">
-        <v>489.3331626247862</v>
+        <v>489.3331626247863</v>
       </c>
       <c r="F27" t="n">
-        <v>354.6393645746605</v>
+        <v>354.6393645746606</v>
       </c>
       <c r="G27" t="n">
         <v>226.1801037686248</v>
       </c>
       <c r="H27" t="n">
-        <v>128.842529884782</v>
+        <v>128.8425298847821</v>
       </c>
       <c r="I27" t="n">
-        <v>69.73010198640283</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="J27" t="n">
-        <v>69.73010198640283</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="K27" t="n">
-        <v>69.73010198640283</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="L27" t="n">
-        <v>492.8477555342507</v>
+        <v>492.8477555342508</v>
       </c>
       <c r="M27" t="n">
         <v>974.5936732967015</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>429.8163769310012</v>
+        <v>429.8163769310015</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5669874231791</v>
+        <v>364.5669874231793</v>
       </c>
       <c r="D28" t="n">
-        <v>315.8616742814394</v>
+        <v>315.8616742814397</v>
       </c>
       <c r="E28" t="n">
-        <v>268.2192400732558</v>
+        <v>268.2192400732561</v>
       </c>
       <c r="F28" t="n">
-        <v>220.1051651295305</v>
+        <v>220.1051651295309</v>
       </c>
       <c r="G28" t="n">
         <v>155.7777176042464</v>
@@ -6379,10 +6379,10 @@
         <v>102.7785179839073</v>
       </c>
       <c r="I28" t="n">
-        <v>69.73010198640283</v>
+        <v>69.73010198640286</v>
       </c>
       <c r="J28" t="n">
-        <v>128.7985938815631</v>
+        <v>128.798593881563</v>
       </c>
       <c r="K28" t="n">
         <v>290.3952805358989</v>
@@ -6391,10 +6391,10 @@
         <v>526.1827975468775</v>
       </c>
       <c r="M28" t="n">
-        <v>781.144675673898</v>
+        <v>781.1446756738981</v>
       </c>
       <c r="N28" t="n">
-        <v>1035.710807758837</v>
+        <v>1035.710807758838</v>
       </c>
       <c r="O28" t="n">
         <v>1267.733884984153</v>
@@ -6412,22 +6412,22 @@
         <v>1402.377450275907</v>
       </c>
       <c r="T28" t="n">
-        <v>1274.52952172111</v>
+        <v>1274.529521721111</v>
       </c>
       <c r="U28" t="n">
-        <v>1091.718174299418</v>
+        <v>1091.718174299419</v>
       </c>
       <c r="V28" t="n">
-        <v>935.3494498883388</v>
+        <v>935.349449888339</v>
       </c>
       <c r="W28" t="n">
-        <v>753.5596284362355</v>
+        <v>753.5596284362357</v>
       </c>
       <c r="X28" t="n">
-        <v>626.6737443621088</v>
+        <v>626.673744362109</v>
       </c>
       <c r="Y28" t="n">
-        <v>509.0051655848835</v>
+        <v>509.0051655848837</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1799.544600876468</v>
+        <v>1799.544600876467</v>
       </c>
       <c r="C29" t="n">
-        <v>1521.977422239773</v>
+        <v>1521.977422239772</v>
       </c>
       <c r="D29" t="n">
-        <v>1253.520037497495</v>
+        <v>1253.520037497494</v>
       </c>
       <c r="E29" t="n">
-        <v>963.1008976340989</v>
+        <v>963.1008976340983</v>
       </c>
       <c r="F29" t="n">
-        <v>653.3162869747669</v>
+        <v>653.3162869747662</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0820868791307</v>
+        <v>342.08208687913</v>
       </c>
       <c r="H29" t="n">
-        <v>118.7808552524662</v>
+        <v>118.7808552524661</v>
       </c>
       <c r="I29" t="n">
-        <v>69.73010198640284</v>
+        <v>69.73010198640283</v>
       </c>
       <c r="J29" t="n">
-        <v>216.4059729125947</v>
+        <v>260.8415838067035</v>
       </c>
       <c r="K29" t="n">
-        <v>621.5719797546245</v>
+        <v>666.0075906487334</v>
       </c>
       <c r="L29" t="n">
-        <v>1149.576531034066</v>
+        <v>1194.012141928175</v>
       </c>
       <c r="M29" t="n">
-        <v>1731.705689593999</v>
+        <v>1776.141300488108</v>
       </c>
       <c r="N29" t="n">
-        <v>2300.328324097195</v>
+        <v>2344.763934991305</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.720000350665</v>
+        <v>2835.155611244775</v>
       </c>
       <c r="P29" t="n">
-        <v>3192.088295980417</v>
+        <v>3236.523906874526</v>
       </c>
       <c r="Q29" t="n">
-        <v>3442.069488426032</v>
+        <v>3486.505099320141</v>
       </c>
       <c r="R29" t="n">
-        <v>3486.505099320142</v>
+        <v>3486.505099320141</v>
       </c>
       <c r="S29" t="n">
-        <v>3415.10952026941</v>
+        <v>3415.109520269409</v>
       </c>
       <c r="T29" t="n">
-        <v>3297.31994013306</v>
+        <v>3297.319940133059</v>
       </c>
       <c r="U29" t="n">
-        <v>3146.841440391126</v>
+        <v>3146.841440391125</v>
       </c>
       <c r="V29" t="n">
-        <v>2914.228746317565</v>
+        <v>2914.228746317563</v>
       </c>
       <c r="W29" t="n">
-        <v>2656.060396205663</v>
+        <v>2656.060396205662</v>
       </c>
       <c r="X29" t="n">
-        <v>2378.396835757654</v>
+        <v>2378.396835757653</v>
       </c>
       <c r="Y29" t="n">
-        <v>2089.22156036399</v>
+        <v>2089.221560363989</v>
       </c>
     </row>
     <row r="30">
@@ -6537,13 +6537,13 @@
         <v>128.842529884782</v>
       </c>
       <c r="I30" t="n">
-        <v>69.73010198640284</v>
+        <v>69.73010198640283</v>
       </c>
       <c r="J30" t="n">
-        <v>69.73010198640284</v>
+        <v>154.9152455554595</v>
       </c>
       <c r="K30" t="n">
-        <v>69.73010198640284</v>
+        <v>154.9152455554595</v>
       </c>
       <c r="L30" t="n">
         <v>422.6988138783528</v>
@@ -6607,31 +6607,31 @@
         <v>268.2192400732558</v>
       </c>
       <c r="F31" t="n">
-        <v>220.1051651295308</v>
+        <v>220.1051651295306</v>
       </c>
       <c r="G31" t="n">
-        <v>155.7777176042463</v>
+        <v>155.7777176042462</v>
       </c>
       <c r="H31" t="n">
         <v>102.7785179839072</v>
       </c>
       <c r="I31" t="n">
-        <v>69.73010198640284</v>
+        <v>69.73010198640283</v>
       </c>
       <c r="J31" t="n">
-        <v>128.7985938815631</v>
+        <v>128.7985938815627</v>
       </c>
       <c r="K31" t="n">
-        <v>290.395280535899</v>
+        <v>290.3952805358987</v>
       </c>
       <c r="L31" t="n">
-        <v>526.1827975468776</v>
+        <v>526.1827975468774</v>
       </c>
       <c r="M31" t="n">
-        <v>781.1446756738985</v>
+        <v>781.1446756738976</v>
       </c>
       <c r="N31" t="n">
-        <v>1035.710807758838</v>
+        <v>1035.710807758837</v>
       </c>
       <c r="O31" t="n">
         <v>1267.733884984153</v>
@@ -6655,16 +6655,16 @@
         <v>1091.718174299418</v>
       </c>
       <c r="V31" t="n">
-        <v>935.3494498883388</v>
+        <v>935.3494498883385</v>
       </c>
       <c r="W31" t="n">
-        <v>753.5596284362355</v>
+        <v>753.5596284362352</v>
       </c>
       <c r="X31" t="n">
-        <v>626.6737443621088</v>
+        <v>626.6737443621087</v>
       </c>
       <c r="Y31" t="n">
-        <v>509.0051655848835</v>
+        <v>509.0051655848834</v>
       </c>
     </row>
     <row r="32">
@@ -6683,46 +6683,46 @@
         <v>1065.308603805055</v>
       </c>
       <c r="E32" t="n">
-        <v>810.3600802913886</v>
+        <v>810.3600802913883</v>
       </c>
       <c r="F32" t="n">
-        <v>536.0460859817854</v>
+        <v>536.0460859817852</v>
       </c>
       <c r="G32" t="n">
         <v>260.2825022358779</v>
       </c>
       <c r="H32" t="n">
-        <v>72.45188695894285</v>
+        <v>72.45188695894268</v>
       </c>
       <c r="I32" t="n">
-        <v>58.8717500426083</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="J32" t="n">
         <v>172.729400761918</v>
       </c>
       <c r="K32" t="n">
-        <v>475.6057225160571</v>
+        <v>475.6057225160572</v>
       </c>
       <c r="L32" t="n">
-        <v>901.3205887076078</v>
+        <v>1038.375024879868</v>
       </c>
       <c r="M32" t="n">
-        <v>1381.16006217965</v>
+        <v>1563.182081671464</v>
       </c>
       <c r="N32" t="n">
-        <v>1892.460594914512</v>
+        <v>2029.51503108677</v>
       </c>
       <c r="O32" t="n">
-        <v>2280.562586080091</v>
+        <v>2417.61702225235</v>
       </c>
       <c r="P32" t="n">
-        <v>2716.695632794212</v>
+        <v>2716.695632794211</v>
       </c>
       <c r="Q32" t="n">
-        <v>2864.387140151936</v>
+        <v>2864.387140151935</v>
       </c>
       <c r="R32" t="n">
-        <v>2943.587502130415</v>
+        <v>2943.587502130414</v>
       </c>
       <c r="S32" t="n">
         <v>2907.662539429411</v>
@@ -6734,7 +6734,7 @@
         <v>2710.335692250585</v>
       </c>
       <c r="V32" t="n">
-        <v>2513.193614526753</v>
+        <v>2513.193614526752</v>
       </c>
       <c r="W32" t="n">
         <v>2290.49588076458</v>
@@ -6762,25 +6762,25 @@
         <v>625.5028206241204</v>
       </c>
       <c r="E33" t="n">
-        <v>478.4748106809917</v>
+        <v>478.4748106809916</v>
       </c>
       <c r="F33" t="n">
         <v>343.781012630866</v>
       </c>
       <c r="G33" t="n">
-        <v>215.3217518248303</v>
+        <v>215.3217518248302</v>
       </c>
       <c r="H33" t="n">
         <v>117.9841779409875</v>
       </c>
       <c r="I33" t="n">
-        <v>58.8717500426083</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="J33" t="n">
-        <v>58.8717500426083</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="K33" t="n">
-        <v>58.8717500426083</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="L33" t="n">
         <v>411.8404619345584</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.0859108913299</v>
+        <v>173.085910891329</v>
       </c>
       <c r="C34" t="n">
-        <v>143.3071377332365</v>
+        <v>143.3071377332358</v>
       </c>
       <c r="D34" t="n">
-        <v>130.0724409412256</v>
+        <v>130.072440941225</v>
       </c>
       <c r="E34" t="n">
-        <v>117.9006230827708</v>
+        <v>117.9006230827704</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2571644887743</v>
+        <v>105.257164488774</v>
       </c>
       <c r="G34" t="n">
-        <v>76.40033331321862</v>
+        <v>76.40033331321845</v>
       </c>
       <c r="H34" t="n">
-        <v>58.8717500426083</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="I34" t="n">
-        <v>58.8717500426083</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="J34" t="n">
-        <v>58.8717500426083</v>
+        <v>152.7049930221379</v>
       </c>
       <c r="K34" t="n">
-        <v>118.1787516090536</v>
+        <v>212.0119945885832</v>
       </c>
       <c r="L34" t="n">
-        <v>251.6765835321415</v>
+        <v>345.5098265116711</v>
       </c>
       <c r="M34" t="n">
-        <v>404.3487765712713</v>
+        <v>498.182019550801</v>
       </c>
       <c r="N34" t="n">
-        <v>556.6252235683201</v>
+        <v>650.4584665478498</v>
       </c>
       <c r="O34" t="n">
-        <v>686.3586157057449</v>
+        <v>780.1918586852746</v>
       </c>
       <c r="P34" t="n">
-        <v>849.0272055828749</v>
+        <v>869.917011825404</v>
       </c>
       <c r="Q34" t="n">
-        <v>966.8361244963428</v>
+        <v>966.8361244963405</v>
       </c>
       <c r="R34" t="n">
-        <v>967.2915332460627</v>
+        <v>967.2915332460606</v>
       </c>
       <c r="S34" t="n">
-        <v>897.3526697881342</v>
+        <v>897.3526697881323</v>
       </c>
       <c r="T34" t="n">
-        <v>804.9753575830661</v>
+        <v>804.9753575830642</v>
       </c>
       <c r="U34" t="n">
-        <v>657.6346265111033</v>
+        <v>657.6346265111016</v>
       </c>
       <c r="V34" t="n">
-        <v>536.7365184497522</v>
+        <v>536.7365184497507</v>
       </c>
       <c r="W34" t="n">
-        <v>390.4173133473777</v>
+        <v>390.4173133473764</v>
       </c>
       <c r="X34" t="n">
-        <v>299.0020456229798</v>
+        <v>299.0020456229787</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8040831954833</v>
+        <v>216.8040831954823</v>
       </c>
     </row>
     <row r="35">
@@ -6917,31 +6917,31 @@
         <v>1190.940507502402</v>
       </c>
       <c r="D35" t="n">
-        <v>975.6424708637064</v>
+        <v>975.642470863706</v>
       </c>
       <c r="E35" t="n">
-        <v>738.3826791038939</v>
+        <v>738.3826791038935</v>
       </c>
       <c r="F35" t="n">
-        <v>481.7574165481446</v>
+        <v>481.7574165481445</v>
       </c>
       <c r="G35" t="n">
         <v>223.6825645560913</v>
       </c>
       <c r="H35" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I35" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J35" t="n">
-        <v>167.3983317523198</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K35" t="n">
-        <v>470.2746535064589</v>
+        <v>470.2746535064594</v>
       </c>
       <c r="L35" t="n">
-        <v>895.9895196980098</v>
+        <v>895.9895196980103</v>
       </c>
       <c r="M35" t="n">
         <v>1375.828993170052</v>
@@ -6950,7 +6950,7 @@
         <v>1842.161942585358</v>
       </c>
       <c r="O35" t="n">
-        <v>2230.263933750937</v>
+        <v>2230.263933750938</v>
       </c>
       <c r="P35" t="n">
         <v>2529.342544292799</v>
@@ -6965,7 +6965,7 @@
         <v>2658.797820703374</v>
       </c>
       <c r="T35" t="n">
-        <v>2594.167588670607</v>
+        <v>2594.167588670608</v>
       </c>
       <c r="U35" t="n">
         <v>2496.848437032256</v>
@@ -6974,7 +6974,7 @@
         <v>2317.395091062278</v>
       </c>
       <c r="W35" t="n">
-        <v>2112.38608905396</v>
+        <v>2112.386089053959</v>
       </c>
       <c r="X35" t="n">
         <v>1887.881876709534</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.7140613833559</v>
+        <v>920.7140613833557</v>
       </c>
       <c r="C36" t="n">
-        <v>759.0103886243106</v>
+        <v>759.0103886243104</v>
       </c>
       <c r="D36" t="n">
-        <v>620.1717516145227</v>
+        <v>620.1717516145225</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1437416713939</v>
+        <v>473.1437416713937</v>
       </c>
       <c r="F36" t="n">
-        <v>338.4499436212682</v>
+        <v>338.4499436212681</v>
       </c>
       <c r="G36" t="n">
         <v>209.9906828152324</v>
@@ -7011,37 +7011,37 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I36" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J36" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K36" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="L36" t="n">
-        <v>406.5093929249607</v>
+        <v>406.5093929249603</v>
       </c>
       <c r="M36" t="n">
-        <v>958.4042523433094</v>
+        <v>958.4042523433089</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.301029483322</v>
+        <v>1538.301029483321</v>
       </c>
       <c r="O36" t="n">
-        <v>1993.285056968146</v>
+        <v>1993.285056968145</v>
       </c>
       <c r="P36" t="n">
-        <v>2345.770732938111</v>
+        <v>2345.77073293811</v>
       </c>
       <c r="Q36" t="n">
         <v>2537.226580621402</v>
       </c>
       <c r="R36" t="n">
-        <v>2494.158757769602</v>
+        <v>2494.158757769601</v>
       </c>
       <c r="S36" t="n">
-        <v>2346.360270290362</v>
+        <v>2346.360270290361</v>
       </c>
       <c r="T36" t="n">
         <v>2158.760389253955</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76.79882185895089</v>
+        <v>118.0569315123781</v>
       </c>
       <c r="C37" t="n">
-        <v>64.70878045471184</v>
+        <v>105.966890108139</v>
       </c>
       <c r="D37" t="n">
         <v>64.70878045471184</v>
@@ -7084,61 +7084,61 @@
         <v>64.70878045471184</v>
       </c>
       <c r="G37" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="H37" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I37" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J37" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K37" t="n">
         <v>112.8476825994557</v>
       </c>
       <c r="L37" t="n">
-        <v>246.3455145225436</v>
+        <v>246.3455145225437</v>
       </c>
       <c r="M37" t="n">
-        <v>399.0177075616734</v>
+        <v>399.0177075616735</v>
       </c>
       <c r="N37" t="n">
-        <v>551.2941545587222</v>
+        <v>551.2941545587223</v>
       </c>
       <c r="O37" t="n">
-        <v>681.0275466961471</v>
+        <v>681.0275466961472</v>
       </c>
       <c r="P37" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="Q37" t="n">
-        <v>751.1164206211025</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="R37" t="n">
-        <v>751.1164206211025</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="S37" t="n">
-        <v>698.8662889170283</v>
+        <v>718.5025681322023</v>
       </c>
       <c r="T37" t="n">
-        <v>602.5558780275613</v>
+        <v>643.8139876809885</v>
       </c>
       <c r="U37" t="n">
-        <v>472.9038787094528</v>
+        <v>514.16198836288</v>
       </c>
       <c r="V37" t="n">
-        <v>369.6945024019561</v>
+        <v>410.9526120553833</v>
       </c>
       <c r="W37" t="n">
-        <v>241.0640290534359</v>
+        <v>282.3221387068631</v>
       </c>
       <c r="X37" t="n">
-        <v>167.3374930828923</v>
+        <v>208.5956027363195</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.82826240925</v>
+        <v>144.0863720626772</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1190.940507502402</v>
       </c>
       <c r="D38" t="n">
-        <v>975.642470863706</v>
+        <v>975.6424708637061</v>
       </c>
       <c r="E38" t="n">
-        <v>738.3826791038935</v>
+        <v>738.3826791038936</v>
       </c>
       <c r="F38" t="n">
         <v>481.7574165481445</v>
@@ -7172,13 +7172,13 @@
         <v>53.54068103301046</v>
       </c>
       <c r="J38" t="n">
-        <v>167.3983317523207</v>
+        <v>167.3983317523197</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2746535064598</v>
+        <v>470.2746535064589</v>
       </c>
       <c r="L38" t="n">
-        <v>895.9895196980103</v>
+        <v>895.9895196980099</v>
       </c>
       <c r="M38" t="n">
         <v>1375.828993170052</v>
@@ -7202,7 +7202,7 @@
         <v>2658.797820703374</v>
       </c>
       <c r="T38" t="n">
-        <v>2594.167588670607</v>
+        <v>2594.167588670608</v>
       </c>
       <c r="U38" t="n">
         <v>2496.848437032256</v>
@@ -7211,7 +7211,7 @@
         <v>2317.395091062278</v>
       </c>
       <c r="W38" t="n">
-        <v>2112.386089053959</v>
+        <v>2112.38608905396</v>
       </c>
       <c r="X38" t="n">
         <v>1887.881876709534</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.7140613833559</v>
+        <v>920.7140613833557</v>
       </c>
       <c r="C39" t="n">
-        <v>759.0103886243106</v>
+        <v>759.0103886243104</v>
       </c>
       <c r="D39" t="n">
-        <v>620.1717516145227</v>
+        <v>620.1717516145225</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1437416713939</v>
+        <v>473.1437416713937</v>
       </c>
       <c r="F39" t="n">
-        <v>338.4499436212682</v>
+        <v>338.4499436212681</v>
       </c>
       <c r="G39" t="n">
         <v>209.9906828152324</v>
@@ -7254,31 +7254,31 @@
         <v>53.54068103301046</v>
       </c>
       <c r="K39" t="n">
-        <v>325.6422784784222</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="L39" t="n">
-        <v>406.5093929249607</v>
+        <v>406.5093929249603</v>
       </c>
       <c r="M39" t="n">
-        <v>958.4042523433094</v>
+        <v>958.4042523433089</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.301029483322</v>
+        <v>1538.301029483321</v>
       </c>
       <c r="O39" t="n">
-        <v>1993.285056968146</v>
+        <v>1993.285056968145</v>
       </c>
       <c r="P39" t="n">
-        <v>2345.770732938111</v>
+        <v>2345.77073293811</v>
       </c>
       <c r="Q39" t="n">
         <v>2537.226580621402</v>
       </c>
       <c r="R39" t="n">
-        <v>2494.158757769602</v>
+        <v>2494.158757769601</v>
       </c>
       <c r="S39" t="n">
-        <v>2346.360270290362</v>
+        <v>2346.360270290361</v>
       </c>
       <c r="T39" t="n">
         <v>2158.760389253955</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.79882185895089</v>
+        <v>118.0569315123781</v>
       </c>
       <c r="C40" t="n">
-        <v>64.70878045471184</v>
+        <v>105.966890108139</v>
       </c>
       <c r="D40" t="n">
         <v>64.70878045471184</v>
@@ -7336,46 +7336,46 @@
         <v>112.8476825994557</v>
       </c>
       <c r="L40" t="n">
-        <v>246.3455145225436</v>
+        <v>246.3455145225437</v>
       </c>
       <c r="M40" t="n">
-        <v>399.0177075616734</v>
+        <v>399.0177075616735</v>
       </c>
       <c r="N40" t="n">
-        <v>551.2941545587222</v>
+        <v>551.2941545587223</v>
       </c>
       <c r="O40" t="n">
-        <v>681.0275466961471</v>
+        <v>681.0275466961472</v>
       </c>
       <c r="P40" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="Q40" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="R40" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362765</v>
       </c>
       <c r="S40" t="n">
-        <v>718.5025681322022</v>
+        <v>718.5025681322023</v>
       </c>
       <c r="T40" t="n">
-        <v>643.8139876809884</v>
+        <v>643.8139876809885</v>
       </c>
       <c r="U40" t="n">
-        <v>514.1619883628798</v>
+        <v>514.16198836288</v>
       </c>
       <c r="V40" t="n">
-        <v>410.9526120553831</v>
+        <v>410.9526120553833</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3221387068629</v>
+        <v>282.3221387068631</v>
       </c>
       <c r="X40" t="n">
-        <v>167.3374930828923</v>
+        <v>208.5956027363195</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.82826240925</v>
+        <v>144.0863720626772</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>1415.348338035514</v>
       </c>
       <c r="C41" t="n">
-        <v>1190.940507502401</v>
+        <v>1190.940507502402</v>
       </c>
       <c r="D41" t="n">
-        <v>975.6424708637057</v>
+        <v>975.6424708637066</v>
       </c>
       <c r="E41" t="n">
-        <v>738.3826791038932</v>
+        <v>738.3826791038941</v>
       </c>
       <c r="F41" t="n">
-        <v>481.7574165481442</v>
+        <v>481.7574165481451</v>
       </c>
       <c r="G41" t="n">
         <v>223.6825645560914</v>
       </c>
       <c r="H41" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I41" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J41" t="n">
-        <v>167.39833175232</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2746535064592</v>
+        <v>470.2746535064594</v>
       </c>
       <c r="L41" t="n">
-        <v>895.98951969801</v>
+        <v>895.9895196980103</v>
       </c>
       <c r="M41" t="n">
         <v>1375.828993170052</v>
       </c>
       <c r="N41" t="n">
-        <v>1842.161942585358</v>
+        <v>1842.161942585359</v>
       </c>
       <c r="O41" t="n">
         <v>2230.263933750938</v>
@@ -7439,22 +7439,22 @@
         <v>2658.797820703374</v>
       </c>
       <c r="T41" t="n">
-        <v>2594.167588670607</v>
+        <v>2594.167588670608</v>
       </c>
       <c r="U41" t="n">
-        <v>2496.848437032256</v>
+        <v>2496.848437032257</v>
       </c>
       <c r="V41" t="n">
-        <v>2317.395091062278</v>
+        <v>2317.395091062279</v>
       </c>
       <c r="W41" t="n">
-        <v>2112.386089053959</v>
+        <v>2112.38608905396</v>
       </c>
       <c r="X41" t="n">
         <v>1887.881876709534</v>
       </c>
       <c r="Y41" t="n">
-        <v>1651.865949419452</v>
+        <v>1651.865949419453</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>920.7140613833559</v>
+        <v>920.7140613833557</v>
       </c>
       <c r="C42" t="n">
-        <v>759.0103886243106</v>
+        <v>759.0103886243104</v>
       </c>
       <c r="D42" t="n">
-        <v>620.1717516145227</v>
+        <v>620.1717516145225</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1437416713939</v>
+        <v>473.1437416713937</v>
       </c>
       <c r="F42" t="n">
-        <v>338.4499436212682</v>
+        <v>338.4499436212681</v>
       </c>
       <c r="G42" t="n">
         <v>209.9906828152324</v>
@@ -7485,37 +7485,37 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I42" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J42" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K42" t="n">
-        <v>325.6422784784222</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="L42" t="n">
-        <v>406.5093929249607</v>
+        <v>406.5093929249603</v>
       </c>
       <c r="M42" t="n">
-        <v>958.4042523433094</v>
+        <v>958.4042523433089</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.301029483322</v>
+        <v>1538.301029483321</v>
       </c>
       <c r="O42" t="n">
-        <v>1993.285056968146</v>
+        <v>1993.285056968145</v>
       </c>
       <c r="P42" t="n">
-        <v>2345.770732938111</v>
+        <v>2345.77073293811</v>
       </c>
       <c r="Q42" t="n">
         <v>2537.226580621402</v>
       </c>
       <c r="R42" t="n">
-        <v>2494.158757769602</v>
+        <v>2494.158757769601</v>
       </c>
       <c r="S42" t="n">
-        <v>2346.360270290362</v>
+        <v>2346.360270290361</v>
       </c>
       <c r="T42" t="n">
         <v>2158.760389253955</v>
@@ -7558,16 +7558,16 @@
         <v>64.70878045471187</v>
       </c>
       <c r="G43" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="H43" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I43" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J43" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K43" t="n">
         <v>112.8476825994557</v>
@@ -7600,16 +7600,16 @@
         <v>643.8139876809885</v>
       </c>
       <c r="U43" t="n">
-        <v>472.9038787094531</v>
+        <v>514.1619883628799</v>
       </c>
       <c r="V43" t="n">
-        <v>369.6945024019563</v>
+        <v>410.9526120553832</v>
       </c>
       <c r="W43" t="n">
-        <v>241.064029053436</v>
+        <v>282.3221387068629</v>
       </c>
       <c r="X43" t="n">
-        <v>167.3374930828924</v>
+        <v>208.5956027363193</v>
       </c>
       <c r="Y43" t="n">
         <v>102.8282624092501</v>
@@ -7640,16 +7640,16 @@
         <v>223.6825645560913</v>
       </c>
       <c r="H44" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I44" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J44" t="n">
-        <v>167.3983317523201</v>
+        <v>167.3983317523202</v>
       </c>
       <c r="K44" t="n">
-        <v>470.2746535064593</v>
+        <v>470.2746535064594</v>
       </c>
       <c r="L44" t="n">
         <v>895.9895196980101</v>
@@ -7661,13 +7661,13 @@
         <v>1842.161942585358</v>
       </c>
       <c r="O44" t="n">
-        <v>2230.263933750937</v>
+        <v>2230.263933750938</v>
       </c>
       <c r="P44" t="n">
-        <v>2529.342544292798</v>
+        <v>2529.342544292799</v>
       </c>
       <c r="Q44" t="n">
-        <v>2677.034051650522</v>
+        <v>2677.034051650523</v>
       </c>
       <c r="R44" t="n">
         <v>2677.034051650523</v>
@@ -7676,7 +7676,7 @@
         <v>2658.797820703374</v>
       </c>
       <c r="T44" t="n">
-        <v>2594.167588670607</v>
+        <v>2594.167588670608</v>
       </c>
       <c r="U44" t="n">
         <v>2496.848437032256</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.7140613833559</v>
+        <v>920.7140613833557</v>
       </c>
       <c r="C45" t="n">
-        <v>759.0103886243106</v>
+        <v>759.0103886243104</v>
       </c>
       <c r="D45" t="n">
-        <v>620.1717516145227</v>
+        <v>620.1717516145225</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1437416713939</v>
+        <v>473.1437416713937</v>
       </c>
       <c r="F45" t="n">
-        <v>338.4499436212682</v>
+        <v>338.4499436212681</v>
       </c>
       <c r="G45" t="n">
         <v>209.9906828152324</v>
@@ -7722,37 +7722,37 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I45" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J45" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K45" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="L45" t="n">
-        <v>406.5093929249607</v>
+        <v>406.5093929249603</v>
       </c>
       <c r="M45" t="n">
-        <v>958.4042523433094</v>
+        <v>958.4042523433089</v>
       </c>
       <c r="N45" t="n">
-        <v>1538.301029483322</v>
+        <v>1538.301029483321</v>
       </c>
       <c r="O45" t="n">
-        <v>1993.285056968146</v>
+        <v>1993.285056968145</v>
       </c>
       <c r="P45" t="n">
-        <v>2345.770732938111</v>
+        <v>2345.77073293811</v>
       </c>
       <c r="Q45" t="n">
         <v>2537.226580621402</v>
       </c>
       <c r="R45" t="n">
-        <v>2494.158757769602</v>
+        <v>2494.158757769601</v>
       </c>
       <c r="S45" t="n">
-        <v>2346.360270290362</v>
+        <v>2346.360270290361</v>
       </c>
       <c r="T45" t="n">
         <v>2158.760389253955</v>
@@ -7795,16 +7795,16 @@
         <v>64.70878045471184</v>
       </c>
       <c r="G46" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="H46" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="I46" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="J46" t="n">
-        <v>53.54068103301045</v>
+        <v>53.54068103301046</v>
       </c>
       <c r="K46" t="n">
         <v>112.8476825994557</v>
@@ -7846,7 +7846,7 @@
         <v>282.3221387068631</v>
       </c>
       <c r="X46" t="n">
-        <v>208.5956027363195</v>
+        <v>167.3374930828923</v>
       </c>
       <c r="Y46" t="n">
         <v>102.82826240925</v>
@@ -8459,10 +8459,10 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>222.0155828264754</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>221.2573825015464</v>
       </c>
       <c r="O8" t="n">
         <v>322.6841960775522</v>
@@ -8538,13 +8538,13 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>245.7292857258421</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O9" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>244.5836053215751</v>
@@ -8766,10 +8766,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>83.74785933339987</v>
+        <v>83.74785933339986</v>
       </c>
       <c r="K12" t="n">
-        <v>96.41651716248475</v>
+        <v>96.41651716248438</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
@@ -9003,13 +9003,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>77.87274637782787</v>
+        <v>77.87274637782778</v>
       </c>
       <c r="K15" t="n">
-        <v>68.95470968664351</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>411.2349320703595</v>
+        <v>136.384833640649</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9240,16 +9240,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>77.87274637782787</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>68.95470968664353</v>
+        <v>339.443162538051</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>54.70087965424649</v>
       </c>
       <c r="M18" t="n">
-        <v>534.5590660508627</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236963</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9477,13 +9477,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>77.87274637782787</v>
+        <v>77.87274637782778</v>
       </c>
       <c r="K21" t="n">
-        <v>68.95470968664351</v>
+        <v>68.95470968664335</v>
       </c>
       <c r="L21" t="n">
-        <v>411.2349320703595</v>
+        <v>411.2349320703579</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9638,7 +9638,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425152</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>77.87274637782778</v>
       </c>
       <c r="K24" t="n">
-        <v>68.95470968664338</v>
+        <v>68.95470968664335</v>
       </c>
       <c r="L24" t="n">
-        <v>325.1893325056542</v>
+        <v>411.2349320703579</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9954,13 +9954,13 @@
         <v>77.87274637782778</v>
       </c>
       <c r="K27" t="n">
-        <v>68.95470968664338</v>
+        <v>68.95470968664335</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>534.5590660508607</v>
+        <v>534.5590660508606</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10188,13 +10188,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>77.87274637782778</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>68.95470968664338</v>
+        <v>68.95470968664333</v>
       </c>
       <c r="L30" t="n">
-        <v>411.2349320703576</v>
+        <v>325.1893325056539</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>77.87274637782778</v>
+        <v>77.87274637782777</v>
       </c>
       <c r="K33" t="n">
-        <v>68.95470968664338</v>
+        <v>68.95470968664333</v>
       </c>
       <c r="L33" t="n">
         <v>411.2349320703578</v>
@@ -10662,13 +10662,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>77.87274637782778</v>
+        <v>77.87274637782777</v>
       </c>
       <c r="K36" t="n">
-        <v>68.95470968664338</v>
+        <v>68.95470968664333</v>
       </c>
       <c r="L36" t="n">
-        <v>411.2349320703579</v>
+        <v>411.2349320703574</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,13 +10899,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>77.87274637782778</v>
+        <v>77.87274637782777</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>68.95470968664333</v>
       </c>
       <c r="L39" t="n">
-        <v>136.384833640649</v>
+        <v>411.2349320703574</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>77.87274637782778</v>
+        <v>77.87274637782777</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>68.95470968664333</v>
       </c>
       <c r="L42" t="n">
-        <v>136.384833640649</v>
+        <v>411.2349320703574</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11373,13 +11373,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>77.87274637782778</v>
+        <v>77.87274637782777</v>
       </c>
       <c r="K45" t="n">
-        <v>68.95470968664335</v>
+        <v>68.95470968664333</v>
       </c>
       <c r="L45" t="n">
-        <v>411.2349320703579</v>
+        <v>411.2349320703574</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>244.9630729139813</v>
+        <v>229.2814094142481</v>
       </c>
       <c r="E11" t="n">
         <v>304.7719315224809</v>
       </c>
       <c r="F11" t="n">
-        <v>323.943747610458</v>
+        <v>323.9437476104581</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>325.4950644345947</v>
       </c>
       <c r="H11" t="n">
-        <v>239.5154740569004</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>70.29792687796068</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.65388382506269</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>81.85387867046317</v>
+        <v>81.85387867046325</v>
       </c>
       <c r="D13" t="n">
-        <v>65.47524306804156</v>
+        <v>65.47524306804164</v>
       </c>
       <c r="E13" t="n">
-        <v>64.42299292382101</v>
+        <v>64.42299292382108</v>
       </c>
       <c r="F13" t="n">
-        <v>64.88991725200732</v>
+        <v>53.15919036696286</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.99328987101444</v>
       </c>
       <c r="H13" t="n">
-        <v>70.18970723159752</v>
+        <v>70.18970723159759</v>
       </c>
       <c r="I13" t="n">
-        <v>25.15139850047835</v>
+        <v>51.54271933957219</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>90.10903602951718</v>
       </c>
       <c r="E14" t="n">
-        <v>156.5557651838828</v>
+        <v>304.771931522481</v>
       </c>
       <c r="F14" t="n">
-        <v>323.9437476104581</v>
+        <v>323.9437476104582</v>
       </c>
       <c r="G14" t="n">
-        <v>325.3788411523992</v>
+        <v>325.3788411523993</v>
       </c>
       <c r="H14" t="n">
-        <v>238.3252023681167</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>15.98986675375193</v>
+        <v>81.85387867046329</v>
       </c>
       <c r="D16" t="n">
-        <v>65.47524306804164</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>64.42299292382108</v>
+        <v>64.42299292382113</v>
       </c>
       <c r="F16" t="n">
-        <v>64.88991725200739</v>
+        <v>64.88991725200744</v>
       </c>
       <c r="G16" t="n">
-        <v>80.94115610775096</v>
+        <v>80.5523872590809</v>
       </c>
       <c r="H16" t="n">
-        <v>69.72619068185506</v>
+        <v>69.7261906818551</v>
       </c>
       <c r="I16" t="n">
-        <v>49.97491489524876</v>
+        <v>49.97491489524877</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -26375,37 +26375,37 @@
         <v>294456.7782311495</v>
       </c>
       <c r="F3" t="n">
-        <v>32475.03813004516</v>
+        <v>32475.03813004558</v>
       </c>
       <c r="G3" t="n">
-        <v>55907.79014421337</v>
+        <v>55907.79014421331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79698.85193905827</v>
+        <v>79698.85193905825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84000.51829319855</v>
+        <v>84000.51829319859</v>
       </c>
       <c r="M3" t="n">
         <v>121991.1154331248</v>
       </c>
       <c r="N3" t="n">
-        <v>8225.761730126351</v>
+        <v>8225.761730126462</v>
       </c>
       <c r="O3" t="n">
-        <v>26750.54123994079</v>
+        <v>26750.54123994078</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26424,19 +26424,19 @@
         <v>355758.3782119924</v>
       </c>
       <c r="E4" t="n">
-        <v>203769.3783309734</v>
+        <v>203769.3783309733</v>
       </c>
       <c r="F4" t="n">
-        <v>202350.4382724731</v>
+        <v>202350.438272473</v>
       </c>
       <c r="G4" t="n">
-        <v>255234.5973074847</v>
+        <v>255234.5973074845</v>
       </c>
       <c r="H4" t="n">
-        <v>255234.5973074847</v>
+        <v>255234.5973074845</v>
       </c>
       <c r="I4" t="n">
-        <v>255234.5973074846</v>
+        <v>255234.5973074845</v>
       </c>
       <c r="J4" t="n">
         <v>256290.3470368605</v>
@@ -26479,37 +26479,37 @@
         <v>47955.67923004334</v>
       </c>
       <c r="F5" t="n">
-        <v>50627.86933901331</v>
+        <v>50627.86933901336</v>
       </c>
       <c r="G5" t="n">
-        <v>56503.00935105565</v>
+        <v>56503.00935105569</v>
       </c>
       <c r="H5" t="n">
-        <v>56503.00935105565</v>
+        <v>56503.00935105569</v>
       </c>
       <c r="I5" t="n">
+        <v>56503.0093510557</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64382.60657227098</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64382.60657227097</v>
+      </c>
+      <c r="L5" t="n">
+        <v>59082.41854843343</v>
+      </c>
+      <c r="M5" t="n">
         <v>56503.00935105569</v>
-      </c>
-      <c r="J5" t="n">
-        <v>64382.60657227097</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64382.60657227098</v>
-      </c>
-      <c r="L5" t="n">
-        <v>59082.41854843342</v>
-      </c>
-      <c r="M5" t="n">
-        <v>56503.00935105568</v>
       </c>
       <c r="N5" t="n">
         <v>56503.00935105569</v>
       </c>
       <c r="O5" t="n">
-        <v>56503.00935105568</v>
+        <v>56503.00935105569</v>
       </c>
       <c r="P5" t="n">
-        <v>56503.00935105568</v>
+        <v>56503.00935105569</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-412548.7613613493</v>
+        <v>-412553.1299338164</v>
       </c>
       <c r="C6" t="n">
-        <v>-412548.7613613493</v>
+        <v>-412553.1299338164</v>
       </c>
       <c r="D6" t="n">
         <v>-439799.9489930375</v>
       </c>
       <c r="E6" t="n">
-        <v>-546181.8357921663</v>
+        <v>-546445.4089518979</v>
       </c>
       <c r="F6" t="n">
-        <v>-285453.3457415315</v>
+        <v>-285685.8274661395</v>
       </c>
       <c r="G6" t="n">
-        <v>-367645.3968027537</v>
+        <v>-367645.3968027536</v>
       </c>
       <c r="H6" t="n">
+        <v>-311737.6066585402</v>
+      </c>
+      <c r="I6" t="n">
         <v>-311737.6066585403</v>
       </c>
-      <c r="I6" t="n">
-        <v>-311737.6066585404</v>
-      </c>
       <c r="J6" t="n">
-        <v>-400371.8055481897</v>
+        <v>-400371.8055481898</v>
       </c>
       <c r="K6" t="n">
         <v>-320672.9536091315</v>
@@ -26555,7 +26555,7 @@
         <v>-433728.722091665</v>
       </c>
       <c r="N6" t="n">
-        <v>-319963.3683886665</v>
+        <v>-319963.3683886667</v>
       </c>
       <c r="O6" t="n">
         <v>-338488.147898481</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="F2" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="G2" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H2" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I2" t="n">
         <v>155.9506688527399</v>
@@ -26713,7 +26713,7 @@
         <v>103.3229142301926</v>
       </c>
       <c r="L2" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="M2" t="n">
         <v>155.9506688527399</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
-        <v>123.9208709259976</v>
+        <v>123.920870925998</v>
       </c>
       <c r="G3" t="n">
-        <v>123.9208709259976</v>
+        <v>123.9208709259981</v>
       </c>
       <c r="H3" t="n">
-        <v>123.9208709259976</v>
+        <v>123.9208709259981</v>
       </c>
       <c r="I3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259981</v>
       </c>
       <c r="J3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259981</v>
       </c>
       <c r="K3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259982</v>
       </c>
       <c r="L3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259982</v>
       </c>
       <c r="M3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259982</v>
       </c>
       <c r="N3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259982</v>
       </c>
       <c r="O3" t="n">
-        <v>123.9208709259981</v>
+        <v>123.9208709259982</v>
       </c>
       <c r="P3" t="n">
-        <v>123.9208709259981</v>
+        <v>123.9208709259982</v>
       </c>
     </row>
     <row r="4">
@@ -26799,37 +26799,37 @@
         <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>669.2585129126302</v>
+        <v>669.2585129126307</v>
       </c>
       <c r="G4" t="n">
-        <v>669.2585129126302</v>
+        <v>669.2585129126307</v>
       </c>
       <c r="H4" t="n">
-        <v>669.2585129126302</v>
+        <v>669.2585129126307</v>
       </c>
       <c r="I4" t="n">
-        <v>669.2585129126306</v>
+        <v>669.2585129126309</v>
       </c>
       <c r="J4" t="n">
-        <v>871.6262748300354</v>
+        <v>871.6262748300356</v>
       </c>
       <c r="K4" t="n">
-        <v>871.6262748300355</v>
+        <v>871.6262748300353</v>
       </c>
       <c r="L4" t="n">
-        <v>735.8968755326038</v>
+        <v>735.8968755326035</v>
       </c>
       <c r="M4" t="n">
-        <v>669.2585129126306</v>
+        <v>669.2585129126307</v>
       </c>
       <c r="N4" t="n">
         <v>669.2585129126307</v>
       </c>
       <c r="O4" t="n">
-        <v>669.2585129126306</v>
+        <v>669.2585129126307</v>
       </c>
       <c r="P4" t="n">
-        <v>669.2585129126306</v>
+        <v>669.2585129126307</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>69.88473768026671</v>
+        <v>69.88473768026664</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.43817654992601</v>
+        <v>33.438176549926</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>105.0006478664982</v>
       </c>
       <c r="M2" t="n">
-        <v>17.51184443631576</v>
+        <v>17.51184443631561</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.43817654992598</v>
+        <v>33.43817654992597</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988871</v>
+        <v>95.0103294798888</v>
       </c>
       <c r="F3" t="n">
-        <v>28.91054144610892</v>
+        <v>28.91054144610924</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>499.9445691177509</v>
       </c>
       <c r="F4" t="n">
-        <v>33.5845444974475</v>
+        <v>33.58454449744806</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>202.3677619174048</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.3062064977778</v>
+        <v>433.3062064977781</v>
       </c>
       <c r="N4" t="n">
-        <v>33.58454449744761</v>
+        <v>33.58454449744806</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>69.88473768026671</v>
+        <v>69.88473768026664</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.43817654992601</v>
+        <v>33.438176549926</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>499.9445691177509</v>
       </c>
       <c r="N4" t="n">
-        <v>33.5845444974475</v>
+        <v>33.58454449744806</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>271.497895687156</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27910,7 +27910,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W8" t="n">
         <v>223.1801815435432</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>381.7405110711329</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27935,13 +27935,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>1.720851342258271</v>
+        <v>77.08622195451581</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
         <v>127.4412149769483</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>29.33849798840185</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X9" t="n">
         <v>60.20841894355158</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>28.47610867058775</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291754</v>
+        <v>130.1741780020194</v>
       </c>
       <c r="T10" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W10" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614622</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="C11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="D11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="E11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="F11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="G11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="H11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="I11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>65.73916953180442</v>
       </c>
       <c r="S11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="T11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="U11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="V11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="W11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="X11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="C13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="D13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="E13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="F13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="G13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="H13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="I13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="J13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="K13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="L13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="M13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="N13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="O13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="P13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="R13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="S13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="T13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="U13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="V13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="W13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="X13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.06593117247333</v>
+        <v>86.06593117247326</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="C14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="D14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="E14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="F14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="G14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="H14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="I14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.43845878159684</v>
+        <v>58.43845878159674</v>
       </c>
       <c r="S14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="T14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="U14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="V14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="W14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="X14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="C16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="D16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="E16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="F16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="G16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="H16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="I16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="J16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="K16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="L16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="M16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="N16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="O16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="P16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="R16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="S16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="T16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="U16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="V16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="W16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="X16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.06593117247326</v>
+        <v>86.06593117247321</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="E17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="F17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="G17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I17" t="n">
-        <v>151.8831599635954</v>
+        <v>151.8831599635953</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.43845878159685</v>
+        <v>58.43845878159672</v>
       </c>
       <c r="S17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y17" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H19" t="n">
         <v>155.7921218543283</v>
@@ -28743,7 +28743,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J19" t="n">
-        <v>43.65777090174797</v>
+        <v>43.6577709017479</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.43991642302221</v>
+        <v>19.43991642302214</v>
       </c>
       <c r="R19" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T19" t="n">
-        <v>115.1051402958466</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V19" t="n">
-        <v>155.95066885274</v>
+        <v>115.105140295847</v>
       </c>
       <c r="W19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y19" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="E20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="F20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="G20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I20" t="n">
         <v>151.8831599635953</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.43845878159684</v>
+        <v>58.43845878159674</v>
       </c>
       <c r="S20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H22" t="n">
         <v>155.7921218543283</v>
@@ -28980,7 +28980,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J22" t="n">
-        <v>43.65777090174796</v>
+        <v>43.6577709017479</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>19.43991642302214</v>
       </c>
       <c r="R22" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S22" t="n">
-        <v>134.5450567188689</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X22" t="n">
-        <v>155.95066885274</v>
+        <v>115.1051402958469</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="23">
@@ -29211,13 +29211,13 @@
         <v>155.9506688527399</v>
       </c>
       <c r="H25" t="n">
-        <v>155.7921218543283</v>
+        <v>114.9465932974354</v>
       </c>
       <c r="I25" t="n">
         <v>136.040846067722</v>
       </c>
       <c r="J25" t="n">
-        <v>43.65777090174791</v>
+        <v>43.6577709017479</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302214</v>
       </c>
       <c r="R25" t="n">
         <v>137.9788155783232</v>
@@ -29250,7 +29250,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="U25" t="n">
-        <v>115.1051402958466</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V25" t="n">
         <v>155.9506688527399</v>
@@ -29299,10 +29299,10 @@
         <v>103.3229142301926</v>
       </c>
       <c r="K26" t="n">
-        <v>33.14971738068908</v>
+        <v>103.3229142301926</v>
       </c>
       <c r="L26" t="n">
-        <v>103.3229142301926</v>
+        <v>33.14971738068994</v>
       </c>
       <c r="M26" t="n">
         <v>103.3229142301926</v>
@@ -29533,7 +29533,7 @@
         <v>103.3229142301926</v>
       </c>
       <c r="J29" t="n">
-        <v>33.14971738068911</v>
+        <v>78.03417282928382</v>
       </c>
       <c r="K29" t="n">
         <v>103.3229142301926</v>
@@ -29557,7 +29557,7 @@
         <v>103.3229142301926</v>
       </c>
       <c r="R29" t="n">
-        <v>103.3229142301926</v>
+        <v>58.43845878159671</v>
       </c>
       <c r="S29" t="n">
         <v>103.3229142301926</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="C32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="D32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="E32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="F32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="G32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="H32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="I32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>45.42180133288292</v>
       </c>
       <c r="N32" t="n">
-        <v>45.42180133288463</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>138.4388244164241</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="S32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="T32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="U32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="V32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="W32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="X32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="D34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="E34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="F34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="I34" t="n">
         <v>136.040846067722</v>
       </c>
       <c r="J34" t="n">
-        <v>43.65777090174791</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>73.68023912828353</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4388244164241</v>
+        <v>117.3380100300288</v>
       </c>
       <c r="R34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="V34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="W34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>58.43845878159674</v>
+        <v>58.43845878159671</v>
       </c>
       <c r="S35" t="n">
         <v>155.9506688527399</v>
@@ -30147,7 +30147,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>110.695645683622</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30165,7 +30165,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J37" t="n">
-        <v>43.65777090174791</v>
+        <v>43.6577709017479</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>19.43991642302213</v>
       </c>
       <c r="R37" t="n">
         <v>137.9788155783232</v>
@@ -30195,7 +30195,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="T37" t="n">
-        <v>134.5450567188693</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U37" t="n">
         <v>155.9506688527399</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>58.43845878159674</v>
+        <v>58.43845878159671</v>
       </c>
       <c r="S38" t="n">
         <v>155.9506688527399</v>
@@ -30384,7 +30384,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>110.695645683622</v>
       </c>
       <c r="E40" t="n">
         <v>150.4889240962943</v>
@@ -30402,7 +30402,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J40" t="n">
-        <v>43.65777090174791</v>
+        <v>43.6577709017479</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302213</v>
       </c>
       <c r="R40" t="n">
         <v>137.9788155783232</v>
@@ -30444,7 +30444,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="X40" t="n">
-        <v>115.1051402958471</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y40" t="n">
         <v>155.9506688527399</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>58.43845878159674</v>
+        <v>58.43845878159671</v>
       </c>
       <c r="S41" t="n">
         <v>155.9506688527398</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.43991642302214</v>
+        <v>19.43991642302213</v>
       </c>
       <c r="R43" t="n">
         <v>137.9788155783232</v>
@@ -30672,7 +30672,7 @@
         <v>155.9506688527398</v>
       </c>
       <c r="U43" t="n">
-        <v>115.1051402958472</v>
+        <v>155.9506688527398</v>
       </c>
       <c r="V43" t="n">
         <v>155.9506688527398</v>
@@ -30684,7 +30684,7 @@
         <v>155.9506688527398</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.9506688527398</v>
+        <v>115.1051402958472</v>
       </c>
     </row>
     <row r="44">
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>58.43845878159674</v>
+        <v>58.43845878159671</v>
       </c>
       <c r="S44" t="n">
         <v>155.9506688527399</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.43991642302214</v>
+        <v>19.43991642302213</v>
       </c>
       <c r="R46" t="n">
         <v>137.9788155783232</v>
@@ -30918,10 +30918,10 @@
         <v>155.9506688527399</v>
       </c>
       <c r="X46" t="n">
+        <v>115.1051402958469</v>
+      </c>
+      <c r="Y46" t="n">
         <v>155.9506688527399</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>115.1051402958469</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3819510732859845</v>
+        <v>0.3819510732859848</v>
       </c>
       <c r="H11" t="n">
-        <v>3.911656429290089</v>
+        <v>3.911656429290093</v>
       </c>
       <c r="I11" t="n">
-        <v>14.72516875285793</v>
+        <v>14.72516875285794</v>
       </c>
       <c r="J11" t="n">
-        <v>32.41761990630636</v>
+        <v>32.41761990630638</v>
       </c>
       <c r="K11" t="n">
-        <v>48.58560883850209</v>
+        <v>48.58560883850213</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757805</v>
+        <v>60.2747439975781</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712767</v>
+        <v>67.06726639712772</v>
       </c>
       <c r="N11" t="n">
-        <v>68.15248488410148</v>
+        <v>68.15248488410154</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911396</v>
+        <v>64.35445889911402</v>
       </c>
       <c r="P11" t="n">
-        <v>54.92504177736622</v>
+        <v>54.92504177736627</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531188</v>
+        <v>41.24641896531192</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730074</v>
+        <v>23.99273410730077</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504379</v>
+        <v>8.703710082504388</v>
       </c>
       <c r="T11" t="n">
-        <v>1.671990823309398</v>
+        <v>1.671990823309399</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287875</v>
+        <v>0.03055608586287878</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2043618407680625</v>
+        <v>0.2043618407680627</v>
       </c>
       <c r="H12" t="n">
-        <v>1.973705146365236</v>
+        <v>1.973705146365238</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689872</v>
+        <v>7.036142324689879</v>
       </c>
       <c r="J12" t="n">
-        <v>19.30771233326682</v>
+        <v>19.30771233326684</v>
       </c>
       <c r="K12" t="n">
-        <v>32.99995566472701</v>
+        <v>32.99995566472704</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869708</v>
+        <v>44.37251283869713</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653934</v>
+        <v>51.78062956653939</v>
       </c>
       <c r="N12" t="n">
-        <v>53.1511087530936</v>
+        <v>53.15110875309365</v>
       </c>
       <c r="O12" t="n">
-        <v>48.62288059712758</v>
+        <v>48.62288059712762</v>
       </c>
       <c r="P12" t="n">
-        <v>39.02414834806977</v>
+        <v>39.0241483480698</v>
       </c>
       <c r="Q12" t="n">
-        <v>26.08660970927058</v>
+        <v>26.0866097092706</v>
       </c>
       <c r="R12" t="n">
-        <v>12.68836060488024</v>
+        <v>12.68836060488025</v>
       </c>
       <c r="S12" t="n">
-        <v>3.795931559880457</v>
+        <v>3.79593155988046</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133745</v>
+        <v>0.8237216301133752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01344485794526728</v>
+        <v>0.01344485794526729</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1713301023407829</v>
+        <v>0.1713301023407831</v>
       </c>
       <c r="H13" t="n">
-        <v>1.523280364448053</v>
+        <v>1.523280364448054</v>
       </c>
       <c r="I13" t="n">
-        <v>5.152363441302819</v>
+        <v>5.152363441302823</v>
       </c>
       <c r="J13" t="n">
-        <v>12.11303823549335</v>
+        <v>12.11303823549336</v>
       </c>
       <c r="K13" t="n">
-        <v>19.90544279922914</v>
+        <v>19.90544279922915</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891967</v>
+        <v>25.4721135789197</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511017</v>
+        <v>26.8567723151102</v>
       </c>
       <c r="N13" t="n">
-        <v>26.21817829729455</v>
+        <v>26.21817829729457</v>
       </c>
       <c r="O13" t="n">
-        <v>24.21673119267722</v>
+        <v>24.21673119267724</v>
       </c>
       <c r="P13" t="n">
-        <v>20.72159710492523</v>
+        <v>20.72159710492524</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.34655975146319</v>
+        <v>14.34655975146321</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795564</v>
+        <v>7.70362441979557</v>
       </c>
       <c r="S13" t="n">
-        <v>2.98581641988437</v>
+        <v>2.985816419884373</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106177</v>
+        <v>0.7320468009106184</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00934527830949726</v>
+        <v>0.009345278309497268</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4981743554813972</v>
+        <v>0.4981743554813988</v>
       </c>
       <c r="H14" t="n">
-        <v>5.10192811807386</v>
+        <v>5.101928118073876</v>
       </c>
       <c r="I14" t="n">
-        <v>19.20586683969658</v>
+        <v>19.20586683969664</v>
       </c>
       <c r="J14" t="n">
-        <v>42.28192570353927</v>
+        <v>42.28192570353941</v>
       </c>
       <c r="K14" t="n">
-        <v>63.36964617106683</v>
+        <v>63.36964617106702</v>
       </c>
       <c r="L14" t="n">
-        <v>78.61564960263064</v>
+        <v>78.6156496026309</v>
       </c>
       <c r="M14" t="n">
-        <v>87.47505779692294</v>
+        <v>87.47505779692322</v>
       </c>
       <c r="N14" t="n">
-        <v>88.89049568443447</v>
+        <v>88.89049568443475</v>
       </c>
       <c r="O14" t="n">
-        <v>83.93677443711631</v>
+        <v>83.93677443711658</v>
       </c>
       <c r="P14" t="n">
-        <v>71.63809503616932</v>
+        <v>71.63809503616955</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.79722593049176</v>
+        <v>53.79722593049193</v>
       </c>
       <c r="R14" t="n">
-        <v>31.29344485750834</v>
+        <v>31.29344485750844</v>
       </c>
       <c r="S14" t="n">
-        <v>11.35214812553235</v>
+        <v>11.35214812553239</v>
       </c>
       <c r="T14" t="n">
-        <v>2.180758241119817</v>
+        <v>2.180758241119824</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03985394843851176</v>
+        <v>0.03985394843851189</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2665467789729006</v>
+        <v>0.2665467789729014</v>
       </c>
       <c r="H15" t="n">
-        <v>2.574280733764593</v>
+        <v>2.574280733764601</v>
       </c>
       <c r="I15" t="n">
-        <v>9.177158837444166</v>
+        <v>9.177158837444194</v>
       </c>
       <c r="J15" t="n">
-        <v>25.18282528883882</v>
+        <v>25.18282528883891</v>
       </c>
       <c r="K15" t="n">
-        <v>43.04145948002316</v>
+        <v>43.0414594800233</v>
       </c>
       <c r="L15" t="n">
-        <v>57.87455391690107</v>
+        <v>57.87455391690126</v>
       </c>
       <c r="M15" t="n">
-        <v>67.53687465466871</v>
+        <v>67.53687465466892</v>
       </c>
       <c r="N15" t="n">
-        <v>69.32437476453522</v>
+        <v>69.32437476453545</v>
       </c>
       <c r="O15" t="n">
-        <v>63.41825929360937</v>
+        <v>63.41825929360958</v>
       </c>
       <c r="P15" t="n">
-        <v>50.89874413562345</v>
+        <v>50.89874413562361</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.02446252292675</v>
+        <v>34.02446252292686</v>
       </c>
       <c r="R15" t="n">
-        <v>16.54928159272097</v>
+        <v>16.54928159272103</v>
       </c>
       <c r="S15" t="n">
-        <v>4.95098951293962</v>
+        <v>4.950989512939636</v>
       </c>
       <c r="T15" t="n">
-        <v>1.074370569631998</v>
+        <v>1.074370569632001</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01753597230084873</v>
+        <v>0.01753597230084879</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.223463865604258</v>
+        <v>0.2234638656042587</v>
       </c>
       <c r="H16" t="n">
-        <v>1.986796914190586</v>
+        <v>1.986796914190593</v>
       </c>
       <c r="I16" t="n">
-        <v>6.720167885626234</v>
+        <v>6.720167885626255</v>
       </c>
       <c r="J16" t="n">
-        <v>15.79889529822104</v>
+        <v>15.79889529822109</v>
       </c>
       <c r="K16" t="n">
-        <v>25.96243820384015</v>
+        <v>25.96243820384024</v>
       </c>
       <c r="L16" t="n">
-        <v>33.22298234629124</v>
+        <v>33.22298234629135</v>
       </c>
       <c r="M16" t="n">
-        <v>35.0289766783111</v>
+        <v>35.0289766783112</v>
       </c>
       <c r="N16" t="n">
-        <v>34.19606590651343</v>
+        <v>34.19606590651354</v>
       </c>
       <c r="O16" t="n">
-        <v>31.58560165831823</v>
+        <v>31.58560165831832</v>
       </c>
       <c r="P16" t="n">
-        <v>27.02693879999134</v>
+        <v>27.02693879999143</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.71205150982564</v>
+        <v>18.7120515098257</v>
       </c>
       <c r="R16" t="n">
-        <v>10.04774799344236</v>
+        <v>10.04774799344239</v>
       </c>
       <c r="S16" t="n">
-        <v>3.894365730576022</v>
+        <v>3.894365730576035</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9548001530363749</v>
+        <v>0.9548001530363779</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01218893812386863</v>
+        <v>0.01218893812386867</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.498174355481397</v>
+        <v>0.498174355481399</v>
       </c>
       <c r="H17" t="n">
-        <v>5.101928118073858</v>
+        <v>5.101928118073879</v>
       </c>
       <c r="I17" t="n">
-        <v>19.20586683969658</v>
+        <v>19.20586683969665</v>
       </c>
       <c r="J17" t="n">
-        <v>42.28192570353926</v>
+        <v>42.28192570353943</v>
       </c>
       <c r="K17" t="n">
-        <v>63.3696461710668</v>
+        <v>63.36964617106706</v>
       </c>
       <c r="L17" t="n">
-        <v>78.61564960263063</v>
+        <v>78.61564960263094</v>
       </c>
       <c r="M17" t="n">
-        <v>87.47505779692293</v>
+        <v>87.47505779692327</v>
       </c>
       <c r="N17" t="n">
-        <v>88.89049568443444</v>
+        <v>88.8904956844348</v>
       </c>
       <c r="O17" t="n">
-        <v>83.9367744371163</v>
+        <v>83.93677443711664</v>
       </c>
       <c r="P17" t="n">
-        <v>71.6380950361693</v>
+        <v>71.63809503616959</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.79722593049175</v>
+        <v>53.79722593049197</v>
       </c>
       <c r="R17" t="n">
-        <v>31.29344485750833</v>
+        <v>31.29344485750846</v>
       </c>
       <c r="S17" t="n">
-        <v>11.35214812553235</v>
+        <v>11.35214812553239</v>
       </c>
       <c r="T17" t="n">
-        <v>2.180758241119817</v>
+        <v>2.180758241119825</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03985394843851175</v>
+        <v>0.03985394843851191</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2665467789729005</v>
+        <v>0.2665467789729016</v>
       </c>
       <c r="H18" t="n">
-        <v>2.574280733764592</v>
+        <v>2.574280733764603</v>
       </c>
       <c r="I18" t="n">
-        <v>9.177158837444164</v>
+        <v>9.1771588374442</v>
       </c>
       <c r="J18" t="n">
-        <v>25.18282528883882</v>
+        <v>25.18282528883892</v>
       </c>
       <c r="K18" t="n">
-        <v>43.04145948002315</v>
+        <v>43.04145948002333</v>
       </c>
       <c r="L18" t="n">
-        <v>57.87455391690106</v>
+        <v>57.87455391690129</v>
       </c>
       <c r="M18" t="n">
-        <v>67.53687465466868</v>
+        <v>67.53687465466896</v>
       </c>
       <c r="N18" t="n">
-        <v>69.32437476453521</v>
+        <v>69.32437476453549</v>
       </c>
       <c r="O18" t="n">
-        <v>63.41825929360936</v>
+        <v>63.41825929360962</v>
       </c>
       <c r="P18" t="n">
-        <v>50.89874413562344</v>
+        <v>50.89874413562364</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.02446252292674</v>
+        <v>34.02446252292688</v>
       </c>
       <c r="R18" t="n">
-        <v>16.54928159272097</v>
+        <v>16.54928159272104</v>
       </c>
       <c r="S18" t="n">
-        <v>4.950989512939618</v>
+        <v>4.950989512939638</v>
       </c>
       <c r="T18" t="n">
-        <v>1.074370569631998</v>
+        <v>1.074370569632002</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01753597230084872</v>
+        <v>0.01753597230084879</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.223463865604258</v>
+        <v>0.2234638656042588</v>
       </c>
       <c r="H19" t="n">
-        <v>1.986796914190586</v>
+        <v>1.986796914190594</v>
       </c>
       <c r="I19" t="n">
-        <v>6.720167885626232</v>
+        <v>6.720167885626259</v>
       </c>
       <c r="J19" t="n">
-        <v>15.79889529822104</v>
+        <v>15.7988952982211</v>
       </c>
       <c r="K19" t="n">
-        <v>25.96243820384015</v>
+        <v>25.96243820384025</v>
       </c>
       <c r="L19" t="n">
-        <v>33.22298234629123</v>
+        <v>33.22298234629136</v>
       </c>
       <c r="M19" t="n">
-        <v>35.02897667831108</v>
+        <v>35.02897667831122</v>
       </c>
       <c r="N19" t="n">
-        <v>34.19606590651343</v>
+        <v>34.19606590651356</v>
       </c>
       <c r="O19" t="n">
-        <v>31.58560165831822</v>
+        <v>31.58560165831835</v>
       </c>
       <c r="P19" t="n">
-        <v>27.02693879999133</v>
+        <v>27.02693879999144</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.71205150982564</v>
+        <v>18.71205150982571</v>
       </c>
       <c r="R19" t="n">
-        <v>10.04774799344236</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S19" t="n">
-        <v>3.894365730576021</v>
+        <v>3.894365730576037</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9548001530363747</v>
+        <v>0.9548001530363784</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01218893812386863</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4981743554813972</v>
+        <v>0.4981743554813989</v>
       </c>
       <c r="H20" t="n">
-        <v>5.10192811807386</v>
+        <v>5.101928118073878</v>
       </c>
       <c r="I20" t="n">
-        <v>19.20586683969658</v>
+        <v>19.20586683969665</v>
       </c>
       <c r="J20" t="n">
-        <v>42.28192570353927</v>
+        <v>42.28192570353942</v>
       </c>
       <c r="K20" t="n">
-        <v>63.36964617106683</v>
+        <v>63.36964617106705</v>
       </c>
       <c r="L20" t="n">
-        <v>78.61564960263064</v>
+        <v>78.61564960263092</v>
       </c>
       <c r="M20" t="n">
-        <v>87.47505779692294</v>
+        <v>87.47505779692325</v>
       </c>
       <c r="N20" t="n">
-        <v>88.89049568443447</v>
+        <v>88.89049568443478</v>
       </c>
       <c r="O20" t="n">
-        <v>83.93677443711631</v>
+        <v>83.93677443711661</v>
       </c>
       <c r="P20" t="n">
-        <v>71.63809503616932</v>
+        <v>71.63809503616957</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.79722593049176</v>
+        <v>53.79722593049195</v>
       </c>
       <c r="R20" t="n">
-        <v>31.29344485750834</v>
+        <v>31.29344485750845</v>
       </c>
       <c r="S20" t="n">
-        <v>11.35214812553235</v>
+        <v>11.35214812553239</v>
       </c>
       <c r="T20" t="n">
-        <v>2.180758241119817</v>
+        <v>2.180758241119825</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03985394843851176</v>
+        <v>0.03985394843851191</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2665467789729006</v>
+        <v>0.2665467789729015</v>
       </c>
       <c r="H21" t="n">
-        <v>2.574280733764593</v>
+        <v>2.574280733764602</v>
       </c>
       <c r="I21" t="n">
-        <v>9.177158837444166</v>
+        <v>9.177158837444198</v>
       </c>
       <c r="J21" t="n">
-        <v>25.18282528883882</v>
+        <v>25.18282528883892</v>
       </c>
       <c r="K21" t="n">
-        <v>43.04145948002316</v>
+        <v>43.04145948002331</v>
       </c>
       <c r="L21" t="n">
-        <v>57.87455391690107</v>
+        <v>57.87455391690128</v>
       </c>
       <c r="M21" t="n">
-        <v>67.53687465466871</v>
+        <v>67.53687465466894</v>
       </c>
       <c r="N21" t="n">
-        <v>69.32437476453522</v>
+        <v>69.32437476453548</v>
       </c>
       <c r="O21" t="n">
-        <v>63.41825929360937</v>
+        <v>63.4182592936096</v>
       </c>
       <c r="P21" t="n">
-        <v>50.89874413562345</v>
+        <v>50.89874413562363</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.02446252292675</v>
+        <v>34.02446252292687</v>
       </c>
       <c r="R21" t="n">
-        <v>16.54928159272097</v>
+        <v>16.54928159272103</v>
       </c>
       <c r="S21" t="n">
-        <v>4.95098951293962</v>
+        <v>4.950989512939637</v>
       </c>
       <c r="T21" t="n">
-        <v>1.074370569631998</v>
+        <v>1.074370569632002</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01753597230084873</v>
+        <v>0.01753597230084879</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.223463865604258</v>
+        <v>0.2234638656042588</v>
       </c>
       <c r="H22" t="n">
-        <v>1.986796914190586</v>
+        <v>1.986796914190593</v>
       </c>
       <c r="I22" t="n">
-        <v>6.720167885626234</v>
+        <v>6.720167885626258</v>
       </c>
       <c r="J22" t="n">
-        <v>15.79889529822104</v>
+        <v>15.7988952982211</v>
       </c>
       <c r="K22" t="n">
-        <v>25.96243820384015</v>
+        <v>25.96243820384024</v>
       </c>
       <c r="L22" t="n">
-        <v>33.22298234629124</v>
+        <v>33.22298234629135</v>
       </c>
       <c r="M22" t="n">
-        <v>35.0289766783111</v>
+        <v>35.02897667831122</v>
       </c>
       <c r="N22" t="n">
-        <v>34.19606590651343</v>
+        <v>34.19606590651355</v>
       </c>
       <c r="O22" t="n">
-        <v>31.58560165831823</v>
+        <v>31.58560165831834</v>
       </c>
       <c r="P22" t="n">
-        <v>27.02693879999134</v>
+        <v>27.02693879999143</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.71205150982564</v>
+        <v>18.71205150982571</v>
       </c>
       <c r="R22" t="n">
-        <v>10.04774799344236</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S22" t="n">
-        <v>3.894365730576022</v>
+        <v>3.894365730576036</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9548001530363749</v>
+        <v>0.9548001530363782</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01218893812386863</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4981743554813988</v>
+        <v>0.4981743554813989</v>
       </c>
       <c r="H23" t="n">
-        <v>5.101928118073876</v>
+        <v>5.101928118073878</v>
       </c>
       <c r="I23" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969665</v>
       </c>
       <c r="J23" t="n">
-        <v>42.28192570353941</v>
+        <v>42.28192570353942</v>
       </c>
       <c r="K23" t="n">
-        <v>63.36964617106702</v>
+        <v>63.36964617106705</v>
       </c>
       <c r="L23" t="n">
-        <v>78.6156496026309</v>
+        <v>78.61564960263092</v>
       </c>
       <c r="M23" t="n">
-        <v>87.47505779692322</v>
+        <v>87.47505779692325</v>
       </c>
       <c r="N23" t="n">
-        <v>88.89049568443475</v>
+        <v>88.89049568443478</v>
       </c>
       <c r="O23" t="n">
-        <v>83.93677443711658</v>
+        <v>83.93677443711661</v>
       </c>
       <c r="P23" t="n">
-        <v>71.63809503616955</v>
+        <v>71.63809503616957</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049195</v>
       </c>
       <c r="R23" t="n">
-        <v>31.29344485750844</v>
+        <v>31.29344485750845</v>
       </c>
       <c r="S23" t="n">
         <v>11.35214812553239</v>
       </c>
       <c r="T23" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119825</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03985394843851189</v>
+        <v>0.03985394843851191</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729015</v>
       </c>
       <c r="H24" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764602</v>
       </c>
       <c r="I24" t="n">
-        <v>9.177158837444194</v>
+        <v>9.177158837444198</v>
       </c>
       <c r="J24" t="n">
-        <v>25.18282528883891</v>
+        <v>25.18282528883892</v>
       </c>
       <c r="K24" t="n">
-        <v>43.0414594800233</v>
+        <v>43.04145948002331</v>
       </c>
       <c r="L24" t="n">
-        <v>57.87455391690126</v>
+        <v>57.87455391690128</v>
       </c>
       <c r="M24" t="n">
-        <v>67.53687465466892</v>
+        <v>67.53687465466894</v>
       </c>
       <c r="N24" t="n">
-        <v>69.32437476453545</v>
+        <v>69.32437476453548</v>
       </c>
       <c r="O24" t="n">
-        <v>63.41825929360958</v>
+        <v>63.4182592936096</v>
       </c>
       <c r="P24" t="n">
-        <v>50.89874413562361</v>
+        <v>50.89874413562363</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.02446252292686</v>
+        <v>34.02446252292687</v>
       </c>
       <c r="R24" t="n">
         <v>16.54928159272103</v>
       </c>
       <c r="S24" t="n">
-        <v>4.950989512939636</v>
+        <v>4.950989512939637</v>
       </c>
       <c r="T24" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569632002</v>
       </c>
       <c r="U24" t="n">
         <v>0.01753597230084879</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042588</v>
       </c>
       <c r="H25" t="n">
         <v>1.986796914190593</v>
       </c>
       <c r="I25" t="n">
-        <v>6.720167885626255</v>
+        <v>6.720167885626258</v>
       </c>
       <c r="J25" t="n">
-        <v>15.79889529822109</v>
+        <v>15.7988952982211</v>
       </c>
       <c r="K25" t="n">
         <v>25.96243820384024</v>
@@ -32874,31 +32874,31 @@
         <v>33.22298234629135</v>
       </c>
       <c r="M25" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831122</v>
       </c>
       <c r="N25" t="n">
-        <v>34.19606590651354</v>
+        <v>34.19606590651355</v>
       </c>
       <c r="O25" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831834</v>
       </c>
       <c r="P25" t="n">
         <v>27.02693879999143</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982571</v>
       </c>
       <c r="R25" t="n">
-        <v>10.04774799344239</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S25" t="n">
-        <v>3.894365730576035</v>
+        <v>3.894365730576036</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9548001530363779</v>
+        <v>0.9548001530363782</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4981743554813988</v>
+        <v>0.4981743554813989</v>
       </c>
       <c r="H26" t="n">
-        <v>5.101928118073876</v>
+        <v>5.101928118073878</v>
       </c>
       <c r="I26" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969665</v>
       </c>
       <c r="J26" t="n">
-        <v>42.28192570353941</v>
+        <v>42.28192570353942</v>
       </c>
       <c r="K26" t="n">
-        <v>63.36964617106702</v>
+        <v>63.36964617106705</v>
       </c>
       <c r="L26" t="n">
-        <v>78.6156496026309</v>
+        <v>78.61564960263092</v>
       </c>
       <c r="M26" t="n">
-        <v>87.47505779692322</v>
+        <v>87.47505779692325</v>
       </c>
       <c r="N26" t="n">
-        <v>88.89049568443475</v>
+        <v>88.89049568443478</v>
       </c>
       <c r="O26" t="n">
-        <v>83.93677443711658</v>
+        <v>83.93677443711661</v>
       </c>
       <c r="P26" t="n">
-        <v>71.63809503616955</v>
+        <v>71.63809503616957</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049195</v>
       </c>
       <c r="R26" t="n">
-        <v>31.29344485750844</v>
+        <v>31.29344485750845</v>
       </c>
       <c r="S26" t="n">
         <v>11.35214812553239</v>
       </c>
       <c r="T26" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119825</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03985394843851189</v>
+        <v>0.03985394843851191</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729015</v>
       </c>
       <c r="H27" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764602</v>
       </c>
       <c r="I27" t="n">
-        <v>9.177158837444194</v>
+        <v>9.177158837444198</v>
       </c>
       <c r="J27" t="n">
-        <v>25.18282528883891</v>
+        <v>25.18282528883892</v>
       </c>
       <c r="K27" t="n">
-        <v>43.0414594800233</v>
+        <v>43.04145948002331</v>
       </c>
       <c r="L27" t="n">
-        <v>57.87455391690126</v>
+        <v>57.87455391690128</v>
       </c>
       <c r="M27" t="n">
-        <v>67.53687465466892</v>
+        <v>67.53687465466894</v>
       </c>
       <c r="N27" t="n">
-        <v>69.32437476453545</v>
+        <v>69.32437476453548</v>
       </c>
       <c r="O27" t="n">
-        <v>63.41825929360958</v>
+        <v>63.4182592936096</v>
       </c>
       <c r="P27" t="n">
-        <v>50.89874413562361</v>
+        <v>50.89874413562363</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.02446252292686</v>
+        <v>34.02446252292687</v>
       </c>
       <c r="R27" t="n">
         <v>16.54928159272103</v>
       </c>
       <c r="S27" t="n">
-        <v>4.950989512939636</v>
+        <v>4.950989512939637</v>
       </c>
       <c r="T27" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569632002</v>
       </c>
       <c r="U27" t="n">
         <v>0.01753597230084879</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042588</v>
       </c>
       <c r="H28" t="n">
         <v>1.986796914190593</v>
       </c>
       <c r="I28" t="n">
-        <v>6.720167885626255</v>
+        <v>6.720167885626258</v>
       </c>
       <c r="J28" t="n">
-        <v>15.79889529822109</v>
+        <v>15.7988952982211</v>
       </c>
       <c r="K28" t="n">
         <v>25.96243820384024</v>
@@ -33111,31 +33111,31 @@
         <v>33.22298234629135</v>
       </c>
       <c r="M28" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831122</v>
       </c>
       <c r="N28" t="n">
-        <v>34.19606590651354</v>
+        <v>34.19606590651355</v>
       </c>
       <c r="O28" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831834</v>
       </c>
       <c r="P28" t="n">
         <v>27.02693879999143</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982571</v>
       </c>
       <c r="R28" t="n">
-        <v>10.04774799344239</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S28" t="n">
-        <v>3.894365730576035</v>
+        <v>3.894365730576036</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9548001530363779</v>
+        <v>0.9548001530363782</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4981743554813988</v>
+        <v>0.4981743554813993</v>
       </c>
       <c r="H29" t="n">
-        <v>5.101928118073876</v>
+        <v>5.101928118073881</v>
       </c>
       <c r="I29" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969666</v>
       </c>
       <c r="J29" t="n">
-        <v>42.28192570353941</v>
+        <v>42.28192570353945</v>
       </c>
       <c r="K29" t="n">
-        <v>63.36964617106702</v>
+        <v>63.36964617106709</v>
       </c>
       <c r="L29" t="n">
-        <v>78.6156496026309</v>
+        <v>78.61564960263098</v>
       </c>
       <c r="M29" t="n">
-        <v>87.47505779692322</v>
+        <v>87.47505779692331</v>
       </c>
       <c r="N29" t="n">
-        <v>88.89049568443475</v>
+        <v>88.89049568443484</v>
       </c>
       <c r="O29" t="n">
-        <v>83.93677443711658</v>
+        <v>83.93677443711667</v>
       </c>
       <c r="P29" t="n">
-        <v>71.63809503616955</v>
+        <v>71.63809503616962</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049199</v>
       </c>
       <c r="R29" t="n">
-        <v>31.29344485750844</v>
+        <v>31.29344485750847</v>
       </c>
       <c r="S29" t="n">
-        <v>11.35214812553239</v>
+        <v>11.3521481255324</v>
       </c>
       <c r="T29" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119826</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03985394843851189</v>
+        <v>0.03985394843851194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729017</v>
       </c>
       <c r="H30" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764604</v>
       </c>
       <c r="I30" t="n">
-        <v>9.177158837444194</v>
+        <v>9.177158837444205</v>
       </c>
       <c r="J30" t="n">
-        <v>25.18282528883891</v>
+        <v>25.18282528883893</v>
       </c>
       <c r="K30" t="n">
-        <v>43.0414594800233</v>
+        <v>43.04145948002334</v>
       </c>
       <c r="L30" t="n">
-        <v>57.87455391690126</v>
+        <v>57.87455391690132</v>
       </c>
       <c r="M30" t="n">
-        <v>67.53687465466892</v>
+        <v>67.53687465466899</v>
       </c>
       <c r="N30" t="n">
-        <v>69.32437476453545</v>
+        <v>69.32437476453552</v>
       </c>
       <c r="O30" t="n">
-        <v>63.41825929360958</v>
+        <v>63.41825929360964</v>
       </c>
       <c r="P30" t="n">
-        <v>50.89874413562361</v>
+        <v>50.89874413562367</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.02446252292686</v>
+        <v>34.0244625229269</v>
       </c>
       <c r="R30" t="n">
-        <v>16.54928159272103</v>
+        <v>16.54928159272104</v>
       </c>
       <c r="S30" t="n">
-        <v>4.950989512939636</v>
+        <v>4.95098951293964</v>
       </c>
       <c r="T30" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569632003</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01753597230084879</v>
+        <v>0.0175359723008488</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.223463865604259</v>
       </c>
       <c r="H31" t="n">
-        <v>1.986796914190593</v>
+        <v>1.986796914190595</v>
       </c>
       <c r="I31" t="n">
-        <v>6.720167885626255</v>
+        <v>6.720167885626262</v>
       </c>
       <c r="J31" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822111</v>
       </c>
       <c r="K31" t="n">
-        <v>25.96243820384024</v>
+        <v>25.96243820384026</v>
       </c>
       <c r="L31" t="n">
-        <v>33.22298234629135</v>
+        <v>33.22298234629137</v>
       </c>
       <c r="M31" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831124</v>
       </c>
       <c r="N31" t="n">
-        <v>34.19606590651354</v>
+        <v>34.19606590651357</v>
       </c>
       <c r="O31" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831836</v>
       </c>
       <c r="P31" t="n">
-        <v>27.02693879999143</v>
+        <v>27.02693879999145</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982572</v>
       </c>
       <c r="R31" t="n">
-        <v>10.04774799344239</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S31" t="n">
-        <v>3.894365730576035</v>
+        <v>3.894365730576039</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9548001530363779</v>
+        <v>0.9548001530363789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4981743554813988</v>
+        <v>0.4981743554813993</v>
       </c>
       <c r="H32" t="n">
-        <v>5.101928118073876</v>
+        <v>5.101928118073881</v>
       </c>
       <c r="I32" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969666</v>
       </c>
       <c r="J32" t="n">
-        <v>42.28192570353941</v>
+        <v>42.28192570353945</v>
       </c>
       <c r="K32" t="n">
-        <v>63.36964617106702</v>
+        <v>63.36964617106709</v>
       </c>
       <c r="L32" t="n">
-        <v>78.6156496026309</v>
+        <v>78.61564960263098</v>
       </c>
       <c r="M32" t="n">
-        <v>87.47505779692322</v>
+        <v>87.47505779692331</v>
       </c>
       <c r="N32" t="n">
-        <v>88.89049568443475</v>
+        <v>88.89049568443484</v>
       </c>
       <c r="O32" t="n">
-        <v>83.93677443711658</v>
+        <v>83.93677443711667</v>
       </c>
       <c r="P32" t="n">
-        <v>71.63809503616955</v>
+        <v>71.63809503616962</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049199</v>
       </c>
       <c r="R32" t="n">
-        <v>31.29344485750844</v>
+        <v>31.29344485750847</v>
       </c>
       <c r="S32" t="n">
-        <v>11.35214812553239</v>
+        <v>11.3521481255324</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119826</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03985394843851189</v>
+        <v>0.03985394843851194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729017</v>
       </c>
       <c r="H33" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764604</v>
       </c>
       <c r="I33" t="n">
-        <v>9.177158837444194</v>
+        <v>9.177158837444205</v>
       </c>
       <c r="J33" t="n">
-        <v>25.18282528883891</v>
+        <v>25.18282528883893</v>
       </c>
       <c r="K33" t="n">
-        <v>43.0414594800233</v>
+        <v>43.04145948002334</v>
       </c>
       <c r="L33" t="n">
-        <v>57.87455391690126</v>
+        <v>57.87455391690132</v>
       </c>
       <c r="M33" t="n">
-        <v>67.53687465466892</v>
+        <v>67.53687465466899</v>
       </c>
       <c r="N33" t="n">
-        <v>69.32437476453545</v>
+        <v>69.32437476453552</v>
       </c>
       <c r="O33" t="n">
-        <v>63.41825929360958</v>
+        <v>63.41825929360964</v>
       </c>
       <c r="P33" t="n">
-        <v>50.89874413562361</v>
+        <v>50.89874413562367</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.02446252292686</v>
+        <v>34.0244625229269</v>
       </c>
       <c r="R33" t="n">
-        <v>16.54928159272103</v>
+        <v>16.54928159272104</v>
       </c>
       <c r="S33" t="n">
-        <v>4.950989512939636</v>
+        <v>4.95098951293964</v>
       </c>
       <c r="T33" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569632003</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01753597230084879</v>
+        <v>0.0175359723008488</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.223463865604259</v>
       </c>
       <c r="H34" t="n">
-        <v>1.986796914190593</v>
+        <v>1.986796914190595</v>
       </c>
       <c r="I34" t="n">
-        <v>6.720167885626255</v>
+        <v>6.720167885626262</v>
       </c>
       <c r="J34" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822111</v>
       </c>
       <c r="K34" t="n">
-        <v>25.96243820384024</v>
+        <v>25.96243820384026</v>
       </c>
       <c r="L34" t="n">
-        <v>33.22298234629135</v>
+        <v>33.22298234629137</v>
       </c>
       <c r="M34" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831124</v>
       </c>
       <c r="N34" t="n">
-        <v>34.19606590651354</v>
+        <v>34.19606590651357</v>
       </c>
       <c r="O34" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831836</v>
       </c>
       <c r="P34" t="n">
-        <v>27.02693879999143</v>
+        <v>27.02693879999145</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982572</v>
       </c>
       <c r="R34" t="n">
-        <v>10.04774799344239</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S34" t="n">
-        <v>3.894365730576035</v>
+        <v>3.894365730576039</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9548001530363779</v>
+        <v>0.9548001530363789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4981743554813988</v>
+        <v>0.4981743554813993</v>
       </c>
       <c r="H35" t="n">
-        <v>5.101928118073876</v>
+        <v>5.101928118073881</v>
       </c>
       <c r="I35" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969666</v>
       </c>
       <c r="J35" t="n">
-        <v>42.28192570353941</v>
+        <v>42.28192570353945</v>
       </c>
       <c r="K35" t="n">
-        <v>63.36964617106702</v>
+        <v>63.36964617106709</v>
       </c>
       <c r="L35" t="n">
-        <v>78.6156496026309</v>
+        <v>78.61564960263098</v>
       </c>
       <c r="M35" t="n">
-        <v>87.47505779692322</v>
+        <v>87.47505779692331</v>
       </c>
       <c r="N35" t="n">
-        <v>88.89049568443475</v>
+        <v>88.89049568443484</v>
       </c>
       <c r="O35" t="n">
-        <v>83.93677443711658</v>
+        <v>83.93677443711667</v>
       </c>
       <c r="P35" t="n">
-        <v>71.63809503616955</v>
+        <v>71.63809503616962</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049199</v>
       </c>
       <c r="R35" t="n">
-        <v>31.29344485750844</v>
+        <v>31.29344485750847</v>
       </c>
       <c r="S35" t="n">
-        <v>11.35214812553239</v>
+        <v>11.3521481255324</v>
       </c>
       <c r="T35" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119826</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03985394843851189</v>
+        <v>0.03985394843851194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729017</v>
       </c>
       <c r="H36" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764604</v>
       </c>
       <c r="I36" t="n">
-        <v>9.177158837444194</v>
+        <v>9.177158837444205</v>
       </c>
       <c r="J36" t="n">
-        <v>25.18282528883891</v>
+        <v>25.18282528883893</v>
       </c>
       <c r="K36" t="n">
-        <v>43.0414594800233</v>
+        <v>43.04145948002334</v>
       </c>
       <c r="L36" t="n">
-        <v>57.87455391690126</v>
+        <v>57.87455391690132</v>
       </c>
       <c r="M36" t="n">
-        <v>67.53687465466892</v>
+        <v>67.53687465466899</v>
       </c>
       <c r="N36" t="n">
-        <v>69.32437476453545</v>
+        <v>69.32437476453552</v>
       </c>
       <c r="O36" t="n">
-        <v>63.41825929360958</v>
+        <v>63.41825929360964</v>
       </c>
       <c r="P36" t="n">
-        <v>50.89874413562361</v>
+        <v>50.89874413562367</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.02446252292686</v>
+        <v>34.0244625229269</v>
       </c>
       <c r="R36" t="n">
-        <v>16.54928159272103</v>
+        <v>16.54928159272104</v>
       </c>
       <c r="S36" t="n">
-        <v>4.950989512939636</v>
+        <v>4.95098951293964</v>
       </c>
       <c r="T36" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569632003</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01753597230084879</v>
+        <v>0.0175359723008488</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.223463865604259</v>
       </c>
       <c r="H37" t="n">
-        <v>1.986796914190593</v>
+        <v>1.986796914190595</v>
       </c>
       <c r="I37" t="n">
-        <v>6.720167885626255</v>
+        <v>6.720167885626262</v>
       </c>
       <c r="J37" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822111</v>
       </c>
       <c r="K37" t="n">
-        <v>25.96243820384024</v>
+        <v>25.96243820384026</v>
       </c>
       <c r="L37" t="n">
-        <v>33.22298234629135</v>
+        <v>33.22298234629137</v>
       </c>
       <c r="M37" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831124</v>
       </c>
       <c r="N37" t="n">
-        <v>34.19606590651354</v>
+        <v>34.19606590651357</v>
       </c>
       <c r="O37" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831836</v>
       </c>
       <c r="P37" t="n">
-        <v>27.02693879999143</v>
+        <v>27.02693879999145</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982572</v>
       </c>
       <c r="R37" t="n">
-        <v>10.04774799344239</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S37" t="n">
-        <v>3.894365730576035</v>
+        <v>3.894365730576039</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9548001530363779</v>
+        <v>0.9548001530363789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4981743554813988</v>
+        <v>0.4981743554813993</v>
       </c>
       <c r="H38" t="n">
-        <v>5.101928118073876</v>
+        <v>5.101928118073881</v>
       </c>
       <c r="I38" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969666</v>
       </c>
       <c r="J38" t="n">
-        <v>42.28192570353941</v>
+        <v>42.28192570353945</v>
       </c>
       <c r="K38" t="n">
-        <v>63.36964617106702</v>
+        <v>63.36964617106709</v>
       </c>
       <c r="L38" t="n">
-        <v>78.6156496026309</v>
+        <v>78.61564960263098</v>
       </c>
       <c r="M38" t="n">
-        <v>87.47505779692322</v>
+        <v>87.47505779692331</v>
       </c>
       <c r="N38" t="n">
-        <v>88.89049568443475</v>
+        <v>88.89049568443484</v>
       </c>
       <c r="O38" t="n">
-        <v>83.93677443711658</v>
+        <v>83.93677443711667</v>
       </c>
       <c r="P38" t="n">
-        <v>71.63809503616955</v>
+        <v>71.63809503616962</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049199</v>
       </c>
       <c r="R38" t="n">
-        <v>31.29344485750844</v>
+        <v>31.29344485750847</v>
       </c>
       <c r="S38" t="n">
-        <v>11.35214812553239</v>
+        <v>11.3521481255324</v>
       </c>
       <c r="T38" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119826</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03985394843851189</v>
+        <v>0.03985394843851194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.2665467789729017</v>
       </c>
       <c r="H39" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764604</v>
       </c>
       <c r="I39" t="n">
-        <v>9.177158837444194</v>
+        <v>9.177158837444205</v>
       </c>
       <c r="J39" t="n">
-        <v>25.18282528883891</v>
+        <v>25.18282528883893</v>
       </c>
       <c r="K39" t="n">
-        <v>43.0414594800233</v>
+        <v>43.04145948002334</v>
       </c>
       <c r="L39" t="n">
-        <v>57.87455391690126</v>
+        <v>57.87455391690132</v>
       </c>
       <c r="M39" t="n">
-        <v>67.53687465466892</v>
+        <v>67.53687465466899</v>
       </c>
       <c r="N39" t="n">
-        <v>69.32437476453545</v>
+        <v>69.32437476453552</v>
       </c>
       <c r="O39" t="n">
-        <v>63.41825929360958</v>
+        <v>63.41825929360964</v>
       </c>
       <c r="P39" t="n">
-        <v>50.89874413562361</v>
+        <v>50.89874413562367</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.02446252292686</v>
+        <v>34.0244625229269</v>
       </c>
       <c r="R39" t="n">
-        <v>16.54928159272103</v>
+        <v>16.54928159272104</v>
       </c>
       <c r="S39" t="n">
-        <v>4.950989512939636</v>
+        <v>4.95098951293964</v>
       </c>
       <c r="T39" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569632003</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01753597230084879</v>
+        <v>0.0175359723008488</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.223463865604259</v>
       </c>
       <c r="H40" t="n">
-        <v>1.986796914190593</v>
+        <v>1.986796914190595</v>
       </c>
       <c r="I40" t="n">
-        <v>6.720167885626255</v>
+        <v>6.720167885626262</v>
       </c>
       <c r="J40" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822111</v>
       </c>
       <c r="K40" t="n">
-        <v>25.96243820384024</v>
+        <v>25.96243820384026</v>
       </c>
       <c r="L40" t="n">
-        <v>33.22298234629135</v>
+        <v>33.22298234629137</v>
       </c>
       <c r="M40" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831124</v>
       </c>
       <c r="N40" t="n">
-        <v>34.19606590651354</v>
+        <v>34.19606590651357</v>
       </c>
       <c r="O40" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831836</v>
       </c>
       <c r="P40" t="n">
-        <v>27.02693879999143</v>
+        <v>27.02693879999145</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982572</v>
       </c>
       <c r="R40" t="n">
-        <v>10.04774799344239</v>
+        <v>10.0477479934424</v>
       </c>
       <c r="S40" t="n">
-        <v>3.894365730576035</v>
+        <v>3.894365730576039</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9548001530363779</v>
+        <v>0.9548001530363789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386868</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4981743554813989</v>
+        <v>0.4981743554813993</v>
       </c>
       <c r="H41" t="n">
-        <v>5.101928118073878</v>
+        <v>5.101928118073881</v>
       </c>
       <c r="I41" t="n">
-        <v>19.20586683969665</v>
+        <v>19.20586683969666</v>
       </c>
       <c r="J41" t="n">
-        <v>42.28192570353942</v>
+        <v>42.28192570353945</v>
       </c>
       <c r="K41" t="n">
-        <v>63.36964617106705</v>
+        <v>63.36964617106709</v>
       </c>
       <c r="L41" t="n">
-        <v>78.61564960263092</v>
+        <v>78.61564960263098</v>
       </c>
       <c r="M41" t="n">
-        <v>87.47505779692325</v>
+        <v>87.47505779692331</v>
       </c>
       <c r="N41" t="n">
-        <v>88.89049568443478</v>
+        <v>88.89049568443484</v>
       </c>
       <c r="O41" t="n">
-        <v>83.93677443711661</v>
+        <v>83.93677443711667</v>
       </c>
       <c r="P41" t="n">
-        <v>71.63809503616957</v>
+        <v>71.63809503616962</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.79722593049195</v>
+        <v>53.79722593049199</v>
       </c>
       <c r="R41" t="n">
-        <v>31.29344485750845</v>
+        <v>31.29344485750847</v>
       </c>
       <c r="S41" t="n">
-        <v>11.35214812553239</v>
+        <v>11.3521481255324</v>
       </c>
       <c r="T41" t="n">
-        <v>2.180758241119825</v>
+        <v>2.180758241119826</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03985394843851191</v>
+        <v>0.03985394843851194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2665467789729015</v>
+        <v>0.2665467789729017</v>
       </c>
       <c r="H42" t="n">
-        <v>2.574280733764602</v>
+        <v>2.574280733764604</v>
       </c>
       <c r="I42" t="n">
-        <v>9.177158837444198</v>
+        <v>9.177158837444205</v>
       </c>
       <c r="J42" t="n">
-        <v>25.18282528883892</v>
+        <v>25.18282528883893</v>
       </c>
       <c r="K42" t="n">
-        <v>43.04145948002331</v>
+        <v>43.04145948002334</v>
       </c>
       <c r="L42" t="n">
-        <v>57.87455391690128</v>
+        <v>57.87455391690132</v>
       </c>
       <c r="M42" t="n">
-        <v>67.53687465466894</v>
+        <v>67.53687465466899</v>
       </c>
       <c r="N42" t="n">
-        <v>69.32437476453548</v>
+        <v>69.32437476453552</v>
       </c>
       <c r="O42" t="n">
-        <v>63.4182592936096</v>
+        <v>63.41825929360964</v>
       </c>
       <c r="P42" t="n">
-        <v>50.89874413562363</v>
+        <v>50.89874413562367</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.02446252292687</v>
+        <v>34.0244625229269</v>
       </c>
       <c r="R42" t="n">
-        <v>16.54928159272103</v>
+        <v>16.54928159272104</v>
       </c>
       <c r="S42" t="n">
-        <v>4.950989512939637</v>
+        <v>4.95098951293964</v>
       </c>
       <c r="T42" t="n">
-        <v>1.074370569632002</v>
+        <v>1.074370569632003</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01753597230084879</v>
+        <v>0.0175359723008488</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,46 +34278,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2234638656042588</v>
+        <v>0.223463865604259</v>
       </c>
       <c r="H43" t="n">
-        <v>1.986796914190593</v>
+        <v>1.986796914190595</v>
       </c>
       <c r="I43" t="n">
-        <v>6.720167885626258</v>
+        <v>6.720167885626262</v>
       </c>
       <c r="J43" t="n">
-        <v>15.7988952982211</v>
+        <v>15.79889529822111</v>
       </c>
       <c r="K43" t="n">
-        <v>25.96243820384024</v>
+        <v>25.96243820384026</v>
       </c>
       <c r="L43" t="n">
-        <v>33.22298234629135</v>
+        <v>33.22298234629137</v>
       </c>
       <c r="M43" t="n">
-        <v>35.02897667831122</v>
+        <v>35.02897667831124</v>
       </c>
       <c r="N43" t="n">
-        <v>34.19606590651355</v>
+        <v>34.19606590651357</v>
       </c>
       <c r="O43" t="n">
-        <v>31.58560165831834</v>
+        <v>31.58560165831836</v>
       </c>
       <c r="P43" t="n">
-        <v>27.02693879999143</v>
+        <v>27.02693879999145</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.71205150982571</v>
+        <v>18.71205150982572</v>
       </c>
       <c r="R43" t="n">
         <v>10.0477479934424</v>
       </c>
       <c r="S43" t="n">
-        <v>3.894365730576036</v>
+        <v>3.894365730576039</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9548001530363782</v>
+        <v>0.9548001530363789</v>
       </c>
       <c r="U43" t="n">
         <v>0.01218893812386868</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4981743554813989</v>
+        <v>0.4981743554813993</v>
       </c>
       <c r="H44" t="n">
-        <v>5.101928118073878</v>
+        <v>5.101928118073881</v>
       </c>
       <c r="I44" t="n">
-        <v>19.20586683969665</v>
+        <v>19.20586683969666</v>
       </c>
       <c r="J44" t="n">
-        <v>42.28192570353942</v>
+        <v>42.28192570353945</v>
       </c>
       <c r="K44" t="n">
-        <v>63.36964617106705</v>
+        <v>63.36964617106709</v>
       </c>
       <c r="L44" t="n">
-        <v>78.61564960263092</v>
+        <v>78.61564960263098</v>
       </c>
       <c r="M44" t="n">
-        <v>87.47505779692325</v>
+        <v>87.47505779692331</v>
       </c>
       <c r="N44" t="n">
-        <v>88.89049568443478</v>
+        <v>88.89049568443484</v>
       </c>
       <c r="O44" t="n">
-        <v>83.93677443711661</v>
+        <v>83.93677443711667</v>
       </c>
       <c r="P44" t="n">
-        <v>71.63809503616957</v>
+        <v>71.63809503616962</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.79722593049195</v>
+        <v>53.79722593049199</v>
       </c>
       <c r="R44" t="n">
-        <v>31.29344485750845</v>
+        <v>31.29344485750847</v>
       </c>
       <c r="S44" t="n">
-        <v>11.35214812553239</v>
+        <v>11.3521481255324</v>
       </c>
       <c r="T44" t="n">
-        <v>2.180758241119825</v>
+        <v>2.180758241119826</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03985394843851191</v>
+        <v>0.03985394843851194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2665467789729015</v>
+        <v>0.2665467789729017</v>
       </c>
       <c r="H45" t="n">
-        <v>2.574280733764602</v>
+        <v>2.574280733764604</v>
       </c>
       <c r="I45" t="n">
-        <v>9.177158837444198</v>
+        <v>9.177158837444205</v>
       </c>
       <c r="J45" t="n">
-        <v>25.18282528883892</v>
+        <v>25.18282528883893</v>
       </c>
       <c r="K45" t="n">
-        <v>43.04145948002331</v>
+        <v>43.04145948002334</v>
       </c>
       <c r="L45" t="n">
-        <v>57.87455391690128</v>
+        <v>57.87455391690132</v>
       </c>
       <c r="M45" t="n">
-        <v>67.53687465466894</v>
+        <v>67.53687465466899</v>
       </c>
       <c r="N45" t="n">
-        <v>69.32437476453548</v>
+        <v>69.32437476453552</v>
       </c>
       <c r="O45" t="n">
-        <v>63.4182592936096</v>
+        <v>63.41825929360964</v>
       </c>
       <c r="P45" t="n">
-        <v>50.89874413562363</v>
+        <v>50.89874413562367</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.02446252292687</v>
+        <v>34.0244625229269</v>
       </c>
       <c r="R45" t="n">
-        <v>16.54928159272103</v>
+        <v>16.54928159272104</v>
       </c>
       <c r="S45" t="n">
-        <v>4.950989512939637</v>
+        <v>4.95098951293964</v>
       </c>
       <c r="T45" t="n">
-        <v>1.074370569632002</v>
+        <v>1.074370569632003</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01753597230084879</v>
+        <v>0.0175359723008488</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,46 +34515,46 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2234638656042588</v>
+        <v>0.223463865604259</v>
       </c>
       <c r="H46" t="n">
-        <v>1.986796914190593</v>
+        <v>1.986796914190595</v>
       </c>
       <c r="I46" t="n">
-        <v>6.720167885626258</v>
+        <v>6.720167885626262</v>
       </c>
       <c r="J46" t="n">
-        <v>15.7988952982211</v>
+        <v>15.79889529822111</v>
       </c>
       <c r="K46" t="n">
-        <v>25.96243820384024</v>
+        <v>25.96243820384026</v>
       </c>
       <c r="L46" t="n">
-        <v>33.22298234629135</v>
+        <v>33.22298234629137</v>
       </c>
       <c r="M46" t="n">
-        <v>35.02897667831122</v>
+        <v>35.02897667831124</v>
       </c>
       <c r="N46" t="n">
-        <v>34.19606590651355</v>
+        <v>34.19606590651357</v>
       </c>
       <c r="O46" t="n">
-        <v>31.58560165831834</v>
+        <v>31.58560165831836</v>
       </c>
       <c r="P46" t="n">
-        <v>27.02693879999143</v>
+        <v>27.02693879999145</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.71205150982571</v>
+        <v>18.71205150982572</v>
       </c>
       <c r="R46" t="n">
         <v>10.0477479934424</v>
       </c>
       <c r="S46" t="n">
-        <v>3.894365730576036</v>
+        <v>3.894365730576039</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9548001530363782</v>
+        <v>0.9548001530363789</v>
       </c>
       <c r="U46" t="n">
         <v>0.01218893812386868</v>
@@ -35179,10 +35179,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>34.85926832931629</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931631</v>
       </c>
       <c r="O8" t="n">
         <v>135.7293992974318</v>
@@ -35258,13 +35258,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="N9" t="n">
         <v>130.2453831642022</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>135.7293992974318</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>105.1434222020696</v>
+        <v>105.1434222020697</v>
       </c>
       <c r="K11" t="n">
         <v>291.1516412069695</v>
       </c>
       <c r="L11" t="n">
-        <v>411.674110750049</v>
+        <v>411.6741107500491</v>
       </c>
       <c r="M11" t="n">
         <v>464.2785454406509</v>
@@ -35422,13 +35422,13 @@
         <v>450.3053724474507</v>
       </c>
       <c r="O11" t="n">
-        <v>372.4398977605624</v>
+        <v>372.4398977605625</v>
       </c>
       <c r="P11" t="n">
         <v>285.3865533491372</v>
       </c>
       <c r="Q11" t="n">
-        <v>136.6325338001977</v>
+        <v>136.6325338001978</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>17.42030366054508</v>
+        <v>17.42030366054474</v>
       </c>
       <c r="L12" t="n">
         <v>413.8895281620462</v>
@@ -35498,10 +35498,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N12" t="n">
-        <v>569.5810543320048</v>
+        <v>569.5810543320049</v>
       </c>
       <c r="O12" t="n">
-        <v>444.7844470457648</v>
+        <v>444.7844470457649</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.72230320799768</v>
+        <v>38.72230320799762</v>
       </c>
       <c r="K13" t="n">
         <v>139.9149979561907</v>
       </c>
       <c r="L13" t="n">
-        <v>213.1613572769077</v>
+        <v>213.1613572769076</v>
       </c>
       <c r="M13" t="n">
         <v>232.1080632124337</v>
@@ -35580,13 +35580,13 @@
         <v>231.9026364895662</v>
       </c>
       <c r="O13" t="n">
-        <v>209.7408911486755</v>
+        <v>209.7408911486754</v>
       </c>
       <c r="P13" t="n">
-        <v>170.3920572957196</v>
+        <v>170.3920572957195</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.26052299108867</v>
+        <v>62.26052299108861</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>115.0077279993026</v>
+        <v>115.0077279993027</v>
       </c>
       <c r="K14" t="n">
-        <v>305.9356785395343</v>
+        <v>305.9356785395345</v>
       </c>
       <c r="L14" t="n">
-        <v>430.0150163551016</v>
+        <v>430.0150163551018</v>
       </c>
       <c r="M14" t="n">
-        <v>484.6863368404461</v>
+        <v>484.6863368404464</v>
       </c>
       <c r="N14" t="n">
-        <v>471.0433832477837</v>
+        <v>471.043383247784</v>
       </c>
       <c r="O14" t="n">
-        <v>392.0222132985647</v>
+        <v>392.022213298565</v>
       </c>
       <c r="P14" t="n">
-        <v>302.0996066079402</v>
+        <v>302.0996066079405</v>
       </c>
       <c r="Q14" t="n">
-        <v>149.1833407653776</v>
+        <v>149.1833407653778</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>274.8500984297089</v>
       </c>
       <c r="L15" t="n">
-        <v>356.5340524161128</v>
+        <v>81.68395398640251</v>
       </c>
       <c r="M15" t="n">
-        <v>557.4695549680288</v>
+        <v>557.469554968029</v>
       </c>
       <c r="N15" t="n">
-        <v>585.7543203434465</v>
+        <v>585.7543203434467</v>
       </c>
       <c r="O15" t="n">
-        <v>459.5798257422466</v>
+        <v>459.5798257422468</v>
       </c>
       <c r="P15" t="n">
-        <v>356.0461373433984</v>
+        <v>356.0461373433986</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.3897451346381</v>
+        <v>193.3897451346382</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,16 +35814,16 @@
         <v>240.2802675756346</v>
       </c>
       <c r="N16" t="n">
-        <v>239.880524098785</v>
+        <v>239.8805240987851</v>
       </c>
       <c r="O16" t="n">
-        <v>217.1097616143164</v>
+        <v>217.1097616143165</v>
       </c>
       <c r="P16" t="n">
         <v>176.6973989907856</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.62601474945104</v>
+        <v>66.62601474945106</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.0077279993025</v>
+        <v>115.0077279993027</v>
       </c>
       <c r="K17" t="n">
-        <v>305.9356785395343</v>
+        <v>305.9356785395345</v>
       </c>
       <c r="L17" t="n">
-        <v>430.0150163551016</v>
+        <v>430.0150163551019</v>
       </c>
       <c r="M17" t="n">
-        <v>484.6863368404461</v>
+        <v>484.6863368404464</v>
       </c>
       <c r="N17" t="n">
-        <v>471.0433832477837</v>
+        <v>471.043383247784</v>
       </c>
       <c r="O17" t="n">
-        <v>392.0222132985647</v>
+        <v>392.0222132985651</v>
       </c>
       <c r="P17" t="n">
-        <v>302.0996066079402</v>
+        <v>302.0996066079405</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.1833407653776</v>
+        <v>149.1833407653778</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86.04559956470371</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>270.4884528514077</v>
       </c>
       <c r="L18" t="n">
-        <v>427.3915692402502</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>486.6120381438915</v>
+        <v>557.469554968029</v>
       </c>
       <c r="N18" t="n">
-        <v>585.7543203434464</v>
+        <v>585.7543203434467</v>
       </c>
       <c r="O18" t="n">
-        <v>459.5798257422466</v>
+        <v>459.5798257422468</v>
       </c>
       <c r="P18" t="n">
-        <v>356.0461373433984</v>
+        <v>356.0461373433986</v>
       </c>
       <c r="Q18" t="n">
-        <v>193.3897451346381</v>
+        <v>193.3897451346382</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.90606218832845</v>
+        <v>59.90606218832855</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8462948718059</v>
+        <v>134.846294871806</v>
       </c>
       <c r="M19" t="n">
-        <v>154.2143364031613</v>
+        <v>154.2143364031614</v>
       </c>
       <c r="N19" t="n">
-        <v>153.8145929263118</v>
+        <v>153.8145929263119</v>
       </c>
       <c r="O19" t="n">
-        <v>131.0438304418431</v>
+        <v>131.0438304418433</v>
       </c>
       <c r="P19" t="n">
-        <v>90.63146781831233</v>
+        <v>90.63146781831244</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>115.007727999303</v>
+        <v>115.0077279993027</v>
       </c>
       <c r="K20" t="n">
-        <v>305.9356785395343</v>
+        <v>305.9356785395345</v>
       </c>
       <c r="L20" t="n">
-        <v>430.0150163551016</v>
+        <v>430.0150163551019</v>
       </c>
       <c r="M20" t="n">
-        <v>484.6863368404461</v>
+        <v>484.6863368404464</v>
       </c>
       <c r="N20" t="n">
-        <v>471.0433832477837</v>
+        <v>471.043383247784</v>
       </c>
       <c r="O20" t="n">
-        <v>392.0222132985647</v>
+        <v>392.022213298565</v>
       </c>
       <c r="P20" t="n">
-        <v>302.0996066079402</v>
+        <v>302.0996066079405</v>
       </c>
       <c r="Q20" t="n">
-        <v>149.1833407653776</v>
+        <v>149.1833407653778</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>356.5340524161128</v>
+        <v>356.5340524161114</v>
       </c>
       <c r="M21" t="n">
-        <v>557.4695549680288</v>
+        <v>557.469554968029</v>
       </c>
       <c r="N21" t="n">
-        <v>585.7543203434465</v>
+        <v>585.7543203434467</v>
       </c>
       <c r="O21" t="n">
-        <v>459.5798257422466</v>
+        <v>459.5798257422468</v>
       </c>
       <c r="P21" t="n">
-        <v>356.0461373433984</v>
+        <v>356.0461373433986</v>
       </c>
       <c r="Q21" t="n">
-        <v>193.3897451346381</v>
+        <v>193.3897451346382</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.90606218832845</v>
+        <v>59.90606218832854</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8462948718059</v>
+        <v>134.846294871806</v>
       </c>
       <c r="M22" t="n">
-        <v>154.2143364031613</v>
+        <v>154.2143364031614</v>
       </c>
       <c r="N22" t="n">
-        <v>153.8145929263118</v>
+        <v>153.8145929263119</v>
       </c>
       <c r="O22" t="n">
-        <v>131.0438304418432</v>
+        <v>131.0438304418433</v>
       </c>
       <c r="P22" t="n">
-        <v>90.63146781831234</v>
+        <v>90.63146781831244</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>115.0077279993027</v>
       </c>
       <c r="K23" t="n">
-        <v>305.9356785395345</v>
+        <v>305.9356785395355</v>
       </c>
       <c r="L23" t="n">
-        <v>430.0150163551018</v>
+        <v>430.0150163551019</v>
       </c>
       <c r="M23" t="n">
         <v>484.6863368404464</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>86.04559956470371</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>270.4884528514077</v>
+        <v>356.5340524161114</v>
       </c>
       <c r="M24" t="n">
         <v>557.469554968029</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832854</v>
       </c>
       <c r="L25" t="n">
         <v>134.846294871806</v>
@@ -36531,7 +36531,7 @@
         <v>131.0438304418433</v>
       </c>
       <c r="P25" t="n">
-        <v>90.63146781831243</v>
+        <v>90.63146781831244</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,10 +36595,10 @@
         <v>218.3306422294953</v>
       </c>
       <c r="K26" t="n">
-        <v>339.0853959202236</v>
+        <v>409.2585927697271</v>
       </c>
       <c r="L26" t="n">
-        <v>533.3379305852944</v>
+        <v>463.1647337357918</v>
       </c>
       <c r="M26" t="n">
         <v>588.009251070639</v>
@@ -36610,13 +36610,13 @@
         <v>495.3451275287576</v>
       </c>
       <c r="P26" t="n">
-        <v>405.422520838133</v>
+        <v>405.4225208381331</v>
       </c>
       <c r="Q26" t="n">
         <v>252.5062549955704</v>
       </c>
       <c r="R26" t="n">
-        <v>44.88445544859585</v>
+        <v>44.88445544859586</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>427.3915692402504</v>
       </c>
       <c r="M27" t="n">
-        <v>486.6120381438897</v>
+        <v>486.6120381438896</v>
       </c>
       <c r="N27" t="n">
         <v>585.7543203434467</v>
@@ -36771,7 +36771,7 @@
         <v>193.954382048505</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.88299780717044</v>
+        <v>83.88299780717045</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>148.1574453799918</v>
+        <v>193.0419008285866</v>
       </c>
       <c r="K29" t="n">
-        <v>409.258592769727</v>
+        <v>409.2585927697272</v>
       </c>
       <c r="L29" t="n">
-        <v>533.3379305852944</v>
+        <v>533.3379305852945</v>
       </c>
       <c r="M29" t="n">
-        <v>588.009251070639</v>
+        <v>588.0092510706392</v>
       </c>
       <c r="N29" t="n">
-        <v>574.3662974779766</v>
+        <v>574.3662974779767</v>
       </c>
       <c r="O29" t="n">
-        <v>495.3451275287576</v>
+        <v>495.3451275287578</v>
       </c>
       <c r="P29" t="n">
-        <v>405.4225208381331</v>
+        <v>405.4225208381332</v>
       </c>
       <c r="Q29" t="n">
-        <v>252.5062549955704</v>
+        <v>252.5062549955705</v>
       </c>
       <c r="R29" t="n">
-        <v>44.88445544859588</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>86.04559956470372</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>356.5340524161111</v>
+        <v>270.4884528514074</v>
       </c>
       <c r="M30" t="n">
         <v>557.469554968029</v>
@@ -36923,7 +36923,7 @@
         <v>585.7543203434467</v>
       </c>
       <c r="O30" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422469</v>
       </c>
       <c r="P30" t="n">
         <v>356.0461373433986</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.66514332844471</v>
+        <v>59.66514332844474</v>
       </c>
       <c r="K31" t="n">
-        <v>163.2289764185211</v>
+        <v>163.2289764185212</v>
       </c>
       <c r="L31" t="n">
-        <v>238.1692091019986</v>
+        <v>238.1692091019987</v>
       </c>
       <c r="M31" t="n">
         <v>257.5372506333541</v>
       </c>
       <c r="N31" t="n">
-        <v>257.1375071565045</v>
+        <v>257.1375071565046</v>
       </c>
       <c r="O31" t="n">
         <v>234.3667446720359</v>
@@ -37008,7 +37008,7 @@
         <v>193.9543820485051</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.88299780717047</v>
+        <v>83.88299780717051</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>305.9356785395345</v>
       </c>
       <c r="L32" t="n">
-        <v>430.0150163551018</v>
+        <v>568.4538407715261</v>
       </c>
       <c r="M32" t="n">
-        <v>484.6863368404464</v>
+        <v>530.1081381733294</v>
       </c>
       <c r="N32" t="n">
-        <v>516.4651845806686</v>
+        <v>471.043383247784</v>
       </c>
       <c r="O32" t="n">
-        <v>392.022213298565</v>
+        <v>392.0222132985651</v>
       </c>
       <c r="P32" t="n">
-        <v>440.5384310243646</v>
+        <v>302.0996066079405</v>
       </c>
       <c r="Q32" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653779</v>
       </c>
       <c r="R32" t="n">
-        <v>80.00036563482735</v>
+        <v>80.00036563482753</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>585.7543203434467</v>
       </c>
       <c r="O33" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422469</v>
       </c>
       <c r="P33" t="n">
         <v>356.0461373433986</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>94.78105351467636</v>
       </c>
       <c r="K34" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832856</v>
       </c>
       <c r="L34" t="n">
         <v>134.846294871806</v>
       </c>
       <c r="M34" t="n">
-        <v>154.2143364031614</v>
+        <v>154.2143364031615</v>
       </c>
       <c r="N34" t="n">
         <v>153.8145929263119</v>
@@ -37242,13 +37242,13 @@
         <v>131.0438304418433</v>
       </c>
       <c r="P34" t="n">
-        <v>164.311706946596</v>
+        <v>90.63146781831246</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9989079934019</v>
+        <v>97.89809360700663</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4600088381009275</v>
+        <v>0.4600088381010803</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37309,22 +37309,22 @@
         <v>305.9356785395345</v>
       </c>
       <c r="L35" t="n">
-        <v>430.0150163551018</v>
+        <v>430.0150163551019</v>
       </c>
       <c r="M35" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404465</v>
       </c>
       <c r="N35" t="n">
         <v>471.043383247784</v>
       </c>
       <c r="O35" t="n">
-        <v>392.022213298565</v>
+        <v>392.0222132985651</v>
       </c>
       <c r="P35" t="n">
         <v>302.0996066079405</v>
       </c>
       <c r="Q35" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653779</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>356.5340524161114</v>
+        <v>356.5340524161109</v>
       </c>
       <c r="M36" t="n">
         <v>557.469554968029</v>
@@ -37397,7 +37397,7 @@
         <v>585.7543203434467</v>
       </c>
       <c r="O36" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422469</v>
       </c>
       <c r="P36" t="n">
         <v>356.0461373433986</v>
@@ -37464,13 +37464,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832856</v>
       </c>
       <c r="L37" t="n">
         <v>134.846294871806</v>
       </c>
       <c r="M37" t="n">
-        <v>154.2143364031614</v>
+        <v>154.2143364031615</v>
       </c>
       <c r="N37" t="n">
         <v>153.8145929263119</v>
@@ -37479,7 +37479,7 @@
         <v>131.0438304418433</v>
       </c>
       <c r="P37" t="n">
-        <v>90.63146781831243</v>
+        <v>90.63146781831246</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>115.0077279993027</v>
+        <v>115.0077279993023</v>
       </c>
       <c r="K38" t="n">
         <v>305.9356785395345</v>
       </c>
       <c r="L38" t="n">
-        <v>430.0150163551018</v>
+        <v>430.0150163551019</v>
       </c>
       <c r="M38" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404465</v>
       </c>
       <c r="N38" t="n">
         <v>471.043383247784</v>
       </c>
       <c r="O38" t="n">
-        <v>392.022213298565</v>
+        <v>392.0222132985651</v>
       </c>
       <c r="P38" t="n">
         <v>302.0996066079405</v>
       </c>
       <c r="Q38" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653779</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>274.8500984297089</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>81.68395398640251</v>
+        <v>356.5340524161109</v>
       </c>
       <c r="M39" t="n">
         <v>557.469554968029</v>
@@ -37634,7 +37634,7 @@
         <v>585.7543203434467</v>
       </c>
       <c r="O39" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422469</v>
       </c>
       <c r="P39" t="n">
         <v>356.0461373433986</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832856</v>
       </c>
       <c r="L40" t="n">
         <v>134.846294871806</v>
       </c>
       <c r="M40" t="n">
-        <v>154.2143364031614</v>
+        <v>154.2143364031615</v>
       </c>
       <c r="N40" t="n">
         <v>153.8145929263119</v>
@@ -37716,7 +37716,7 @@
         <v>131.0438304418433</v>
       </c>
       <c r="P40" t="n">
-        <v>90.63146781831243</v>
+        <v>90.63146781831246</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>430.0150163551019</v>
       </c>
       <c r="M41" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404465</v>
       </c>
       <c r="N41" t="n">
         <v>471.043383247784</v>
       </c>
       <c r="O41" t="n">
-        <v>392.022213298565</v>
+        <v>392.0222132985651</v>
       </c>
       <c r="P41" t="n">
         <v>302.0996066079405</v>
       </c>
       <c r="Q41" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653779</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>274.8500984297089</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>81.68395398640251</v>
+        <v>356.5340524161109</v>
       </c>
       <c r="M42" t="n">
         <v>557.469554968029</v>
@@ -37871,7 +37871,7 @@
         <v>585.7543203434467</v>
       </c>
       <c r="O42" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422469</v>
       </c>
       <c r="P42" t="n">
         <v>356.0461373433986</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.90606218832854</v>
+        <v>59.90606218832856</v>
       </c>
       <c r="L43" t="n">
         <v>134.846294871806</v>
       </c>
       <c r="M43" t="n">
-        <v>154.2143364031614</v>
+        <v>154.2143364031615</v>
       </c>
       <c r="N43" t="n">
         <v>153.8145929263119</v>
@@ -37953,7 +37953,7 @@
         <v>131.0438304418433</v>
       </c>
       <c r="P43" t="n">
-        <v>90.63146781831244</v>
+        <v>90.63146781831246</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38023,19 +38023,19 @@
         <v>430.0150163551019</v>
       </c>
       <c r="M44" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404465</v>
       </c>
       <c r="N44" t="n">
         <v>471.043383247784</v>
       </c>
       <c r="O44" t="n">
-        <v>392.022213298565</v>
+        <v>392.0222132985651</v>
       </c>
       <c r="P44" t="n">
         <v>302.0996066079405</v>
       </c>
       <c r="Q44" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653779</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>356.5340524161114</v>
+        <v>356.5340524161109</v>
       </c>
       <c r="M45" t="n">
         <v>557.469554968029</v>
@@ -38108,7 +38108,7 @@
         <v>585.7543203434467</v>
       </c>
       <c r="O45" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422469</v>
       </c>
       <c r="P45" t="n">
         <v>356.0461373433986</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.90606218832854</v>
+        <v>59.90606218832856</v>
       </c>
       <c r="L46" t="n">
         <v>134.846294871806</v>
       </c>
       <c r="M46" t="n">
-        <v>154.2143364031614</v>
+        <v>154.2143364031615</v>
       </c>
       <c r="N46" t="n">
         <v>153.8145929263119</v>
@@ -38190,7 +38190,7 @@
         <v>131.0438304418433</v>
       </c>
       <c r="P46" t="n">
-        <v>90.63146781831244</v>
+        <v>90.63146781831246</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
